--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>9.524e-05</v>
+        <v>1074.3023</v>
       </c>
       <c r="G2" t="n">
-        <v>42.24266666666672</v>
+        <v>42.24716666666672</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>42.21</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>42.21</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>4171.57946434</v>
+        <v>9.524e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>42.24300000000005</v>
+        <v>42.24266666666672</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="C4" t="n">
-        <v>42.24</v>
+        <v>42.21</v>
       </c>
       <c r="D4" t="n">
-        <v>42.24</v>
+        <v>42.21</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1183.9269</v>
+        <v>4171.57946434</v>
       </c>
       <c r="G4" t="n">
-        <v>42.24250000000005</v>
+        <v>42.24300000000005</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>42.24</v>
       </c>
       <c r="D5" t="n">
-        <v>42.1</v>
+        <v>42.24</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>50000</v>
+        <v>1183.9269</v>
       </c>
       <c r="G5" t="n">
-        <v>42.23800000000005</v>
+        <v>42.24250000000005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="C6" t="n">
-        <v>42.25</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>42.25</v>
+        <v>42.1</v>
       </c>
       <c r="E6" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>528.40787017</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>42.23766666666672</v>
+        <v>42.23800000000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42.26</v>
+        <v>42.2</v>
       </c>
       <c r="C7" t="n">
-        <v>42.26</v>
+        <v>42.25</v>
       </c>
       <c r="D7" t="n">
-        <v>42.26</v>
+        <v>42.25</v>
       </c>
       <c r="E7" t="n">
-        <v>42.26</v>
+        <v>42.2</v>
       </c>
       <c r="F7" t="n">
-        <v>14.1946</v>
+        <v>528.40787017</v>
       </c>
       <c r="G7" t="n">
-        <v>42.23750000000005</v>
+        <v>42.23766666666672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.28</v>
+        <v>42.26</v>
       </c>
       <c r="C8" t="n">
-        <v>42.28</v>
+        <v>42.26</v>
       </c>
       <c r="D8" t="n">
-        <v>42.28</v>
+        <v>42.26</v>
       </c>
       <c r="E8" t="n">
-        <v>42.28</v>
+        <v>42.26</v>
       </c>
       <c r="F8" t="n">
-        <v>34224.62157048</v>
+        <v>14.1946</v>
       </c>
       <c r="G8" t="n">
-        <v>42.23766666666673</v>
+        <v>42.23750000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.06</v>
+        <v>42.28</v>
       </c>
       <c r="C9" t="n">
-        <v>42.06</v>
+        <v>42.28</v>
       </c>
       <c r="D9" t="n">
-        <v>42.06</v>
+        <v>42.28</v>
       </c>
       <c r="E9" t="n">
-        <v>42.06</v>
+        <v>42.28</v>
       </c>
       <c r="F9" t="n">
-        <v>567.2194</v>
+        <v>34224.62157048</v>
       </c>
       <c r="G9" t="n">
-        <v>42.23416666666672</v>
+        <v>42.23766666666673</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.28</v>
+        <v>42.06</v>
       </c>
       <c r="C10" t="n">
-        <v>42.28</v>
+        <v>42.06</v>
       </c>
       <c r="D10" t="n">
-        <v>42.28</v>
+        <v>42.06</v>
       </c>
       <c r="E10" t="n">
-        <v>42.28</v>
+        <v>42.06</v>
       </c>
       <c r="F10" t="n">
-        <v>851.7140000000001</v>
+        <v>567.2194</v>
       </c>
       <c r="G10" t="n">
-        <v>42.2343333333334</v>
+        <v>42.23416666666672</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42.27</v>
+        <v>42.28</v>
       </c>
       <c r="C11" t="n">
-        <v>42.27</v>
+        <v>42.28</v>
       </c>
       <c r="D11" t="n">
-        <v>42.27</v>
+        <v>42.28</v>
       </c>
       <c r="E11" t="n">
-        <v>42.27</v>
+        <v>42.28</v>
       </c>
       <c r="F11" t="n">
-        <v>4210.8543</v>
+        <v>851.7140000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>42.23733333333339</v>
+        <v>42.2343333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="C12" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="D12" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="E12" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="F12" t="n">
-        <v>1317.7521</v>
+        <v>4210.8543</v>
       </c>
       <c r="G12" t="n">
-        <v>42.23800000000006</v>
+        <v>42.23733333333339</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="C13" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="D13" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="E13" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="F13" t="n">
-        <v>121.2186</v>
+        <v>1317.7521</v>
       </c>
       <c r="G13" t="n">
-        <v>42.24183333333339</v>
+        <v>42.23800000000006</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>42.1</v>
+        <v>42.28</v>
       </c>
       <c r="C14" t="n">
         <v>42.28</v>
@@ -862,13 +862,13 @@
         <v>42.28</v>
       </c>
       <c r="E14" t="n">
-        <v>42.1</v>
+        <v>42.28</v>
       </c>
       <c r="F14" t="n">
-        <v>115.8328</v>
+        <v>121.2186</v>
       </c>
       <c r="G14" t="n">
-        <v>42.24566666666672</v>
+        <v>42.24183333333339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="C15" t="n">
         <v>42.28</v>
@@ -897,13 +897,13 @@
         <v>42.28</v>
       </c>
       <c r="E15" t="n">
-        <v>42.28</v>
+        <v>42.1</v>
       </c>
       <c r="F15" t="n">
-        <v>44.2965</v>
+        <v>115.8328</v>
       </c>
       <c r="G15" t="n">
-        <v>42.24950000000005</v>
+        <v>42.24566666666672</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>42.12</v>
+        <v>42.28</v>
       </c>
       <c r="C16" t="n">
         <v>42.28</v>
@@ -932,13 +932,13 @@
         <v>42.28</v>
       </c>
       <c r="E16" t="n">
-        <v>42.12</v>
+        <v>42.28</v>
       </c>
       <c r="F16" t="n">
-        <v>971.5825</v>
+        <v>44.2965</v>
       </c>
       <c r="G16" t="n">
-        <v>42.25333333333339</v>
+        <v>42.24950000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>42.28</v>
+        <v>42.12</v>
       </c>
       <c r="C17" t="n">
         <v>42.28</v>
@@ -967,13 +967,13 @@
         <v>42.28</v>
       </c>
       <c r="E17" t="n">
-        <v>42.28</v>
+        <v>42.12</v>
       </c>
       <c r="F17" t="n">
-        <v>2350</v>
+        <v>971.5825</v>
       </c>
       <c r="G17" t="n">
-        <v>42.25716666666673</v>
+        <v>42.25333333333339</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>42.28</v>
       </c>
       <c r="C18" t="n">
-        <v>42.4</v>
+        <v>42.28</v>
       </c>
       <c r="D18" t="n">
-        <v>42.4</v>
+        <v>42.28</v>
       </c>
       <c r="E18" t="n">
         <v>42.28</v>
       </c>
       <c r="F18" t="n">
-        <v>8000</v>
+        <v>2350</v>
       </c>
       <c r="G18" t="n">
-        <v>42.25900000000006</v>
+        <v>42.25716666666673</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42.23</v>
+        <v>42.28</v>
       </c>
       <c r="C19" t="n">
-        <v>42.37</v>
+        <v>42.4</v>
       </c>
       <c r="D19" t="n">
-        <v>42.37</v>
+        <v>42.4</v>
       </c>
       <c r="E19" t="n">
-        <v>42.23</v>
+        <v>42.28</v>
       </c>
       <c r="F19" t="n">
-        <v>38822.6167</v>
+        <v>8000</v>
       </c>
       <c r="G19" t="n">
-        <v>42.2628333333334</v>
+        <v>42.25900000000006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42.4</v>
+        <v>42.23</v>
       </c>
       <c r="C20" t="n">
-        <v>42.4</v>
+        <v>42.37</v>
       </c>
       <c r="D20" t="n">
-        <v>42.4</v>
+        <v>42.37</v>
       </c>
       <c r="E20" t="n">
-        <v>42.4</v>
+        <v>42.23</v>
       </c>
       <c r="F20" t="n">
-        <v>41.1243</v>
+        <v>38822.6167</v>
       </c>
       <c r="G20" t="n">
-        <v>42.26766666666673</v>
+        <v>42.2628333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.21</v>
+        <v>42.4</v>
       </c>
       <c r="C21" t="n">
-        <v>42.21</v>
+        <v>42.4</v>
       </c>
       <c r="D21" t="n">
-        <v>42.21</v>
+        <v>42.4</v>
       </c>
       <c r="E21" t="n">
-        <v>42.21</v>
+        <v>42.4</v>
       </c>
       <c r="F21" t="n">
-        <v>18280.6517</v>
+        <v>41.1243</v>
       </c>
       <c r="G21" t="n">
-        <v>42.26733333333339</v>
+        <v>42.26766666666673</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>42.21</v>
       </c>
       <c r="C22" t="n">
-        <v>42.38</v>
+        <v>42.21</v>
       </c>
       <c r="D22" t="n">
-        <v>42.38</v>
+        <v>42.21</v>
       </c>
       <c r="E22" t="n">
         <v>42.21</v>
       </c>
       <c r="F22" t="n">
-        <v>835.3366</v>
+        <v>18280.6517</v>
       </c>
       <c r="G22" t="n">
-        <v>42.27250000000006</v>
+        <v>42.26733333333339</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.31</v>
+        <v>42.21</v>
       </c>
       <c r="C23" t="n">
-        <v>42.3</v>
+        <v>42.38</v>
       </c>
       <c r="D23" t="n">
-        <v>42.31</v>
+        <v>42.38</v>
       </c>
       <c r="E23" t="n">
-        <v>42.3</v>
+        <v>42.21</v>
       </c>
       <c r="F23" t="n">
-        <v>3710.77</v>
+        <v>835.3366</v>
       </c>
       <c r="G23" t="n">
-        <v>42.27616666666673</v>
+        <v>42.27250000000006</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.4</v>
+        <v>42.31</v>
       </c>
       <c r="C24" t="n">
         <v>42.3</v>
       </c>
       <c r="D24" t="n">
-        <v>42.4</v>
+        <v>42.31</v>
       </c>
       <c r="E24" t="n">
         <v>42.3</v>
       </c>
       <c r="F24" t="n">
-        <v>560.2556</v>
+        <v>3710.77</v>
       </c>
       <c r="G24" t="n">
-        <v>42.2798333333334</v>
+        <v>42.27616666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>42.4</v>
       </c>
       <c r="C25" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="D25" t="n">
         <v>42.4</v>
@@ -1250,10 +1250,10 @@
         <v>42.3</v>
       </c>
       <c r="F25" t="n">
-        <v>100745.1775</v>
+        <v>560.2556</v>
       </c>
       <c r="G25" t="n">
-        <v>42.2818333333334</v>
+        <v>42.2798333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>42.4</v>
       </c>
       <c r="C26" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="D26" t="n">
         <v>42.4</v>
@@ -1285,10 +1285,10 @@
         <v>42.3</v>
       </c>
       <c r="F26" t="n">
-        <v>47040.7375</v>
+        <v>100745.1775</v>
       </c>
       <c r="G26" t="n">
-        <v>42.28216666666673</v>
+        <v>42.2818333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="C27" t="n">
         <v>42.3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>42.4</v>
       </c>
       <c r="D27" t="n">
         <v>42.4</v>
@@ -1320,10 +1320,10 @@
         <v>42.3</v>
       </c>
       <c r="F27" t="n">
-        <v>31418.6349</v>
+        <v>47040.7375</v>
       </c>
       <c r="G27" t="n">
-        <v>42.28400000000007</v>
+        <v>42.28216666666673</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="C28" t="n">
         <v>42.4</v>
@@ -1355,10 +1355,10 @@
         <v>42.3</v>
       </c>
       <c r="F28" t="n">
-        <v>4583.08564716</v>
+        <v>31418.6349</v>
       </c>
       <c r="G28" t="n">
-        <v>42.2858333333334</v>
+        <v>42.28400000000007</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="C29" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="D29" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="E29" t="n">
         <v>42.3</v>
       </c>
       <c r="F29" t="n">
-        <v>51242.0768</v>
+        <v>4583.08564716</v>
       </c>
       <c r="G29" t="n">
-        <v>42.28733333333341</v>
+        <v>42.2858333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>42.3</v>
       </c>
       <c r="F30" t="n">
-        <v>14000</v>
+        <v>51242.0768</v>
       </c>
       <c r="G30" t="n">
-        <v>42.28750000000007</v>
+        <v>42.28733333333341</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="C31" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="D31" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="E31" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="F31" t="n">
-        <v>49.3883</v>
+        <v>14000</v>
       </c>
       <c r="G31" t="n">
-        <v>42.28850000000008</v>
+        <v>42.28750000000007</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>42.35</v>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>49.3883</v>
       </c>
       <c r="G32" t="n">
-        <v>42.28916666666674</v>
+        <v>42.28850000000008</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>42.35</v>
       </c>
       <c r="C33" t="n">
-        <v>42.3</v>
+        <v>42.35</v>
       </c>
       <c r="D33" t="n">
-        <v>42.4</v>
+        <v>42.35</v>
       </c>
       <c r="E33" t="n">
-        <v>42.3</v>
+        <v>42.35</v>
       </c>
       <c r="F33" t="n">
-        <v>103214.6847</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="n">
-        <v>42.28900000000008</v>
+        <v>42.28916666666674</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>42.3</v>
+        <v>42.35</v>
       </c>
       <c r="C34" t="n">
         <v>42.3</v>
       </c>
       <c r="D34" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="E34" t="n">
         <v>42.3</v>
       </c>
       <c r="F34" t="n">
-        <v>3000</v>
+        <v>103214.6847</v>
       </c>
       <c r="G34" t="n">
-        <v>42.28883333333341</v>
+        <v>42.28900000000008</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>42.3</v>
       </c>
       <c r="C35" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="D35" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="E35" t="n">
         <v>42.3</v>
       </c>
       <c r="F35" t="n">
-        <v>966.371</v>
+        <v>3000</v>
       </c>
       <c r="G35" t="n">
-        <v>42.28766666666675</v>
+        <v>42.28883333333341</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="C36" t="n">
         <v>42.4</v>
@@ -1635,10 +1635,10 @@
         <v>42.3</v>
       </c>
       <c r="F36" t="n">
-        <v>10322.8826</v>
+        <v>966.371</v>
       </c>
       <c r="G36" t="n">
-        <v>42.28666666666675</v>
+        <v>42.28766666666675</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>42.35</v>
       </c>
       <c r="C37" t="n">
-        <v>42.35</v>
+        <v>42.4</v>
       </c>
       <c r="D37" t="n">
         <v>42.4</v>
       </c>
       <c r="E37" t="n">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="F37" t="n">
-        <v>9934.880800000001</v>
+        <v>10322.8826</v>
       </c>
       <c r="G37" t="n">
-        <v>42.28816666666675</v>
+        <v>42.28666666666675</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>42.4</v>
+        <v>42.35</v>
       </c>
       <c r="C38" t="n">
         <v>42.35</v>
@@ -1705,10 +1705,10 @@
         <v>42.35</v>
       </c>
       <c r="F38" t="n">
-        <v>86177.6037566</v>
+        <v>9934.880800000001</v>
       </c>
       <c r="G38" t="n">
-        <v>42.28633333333342</v>
+        <v>42.28816666666675</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>42.35</v>
+        <v>42.4</v>
       </c>
       <c r="C39" t="n">
         <v>42.35</v>
       </c>
       <c r="D39" t="n">
-        <v>42.35</v>
+        <v>42.4</v>
       </c>
       <c r="E39" t="n">
         <v>42.35</v>
       </c>
       <c r="F39" t="n">
-        <v>22287.119</v>
+        <v>86177.6037566</v>
       </c>
       <c r="G39" t="n">
-        <v>42.28716666666674</v>
+        <v>42.28633333333342</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>42.35</v>
       </c>
       <c r="F40" t="n">
-        <v>30733.3014</v>
+        <v>22287.119</v>
       </c>
       <c r="G40" t="n">
-        <v>42.28950000000007</v>
+        <v>42.28716666666674</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>42.34</v>
+        <v>42.35</v>
       </c>
       <c r="C41" t="n">
-        <v>42.3</v>
+        <v>42.35</v>
       </c>
       <c r="D41" t="n">
-        <v>42.34</v>
+        <v>42.35</v>
       </c>
       <c r="E41" t="n">
-        <v>42.3</v>
+        <v>42.35</v>
       </c>
       <c r="F41" t="n">
-        <v>21894.7967</v>
+        <v>30733.3014</v>
       </c>
       <c r="G41" t="n">
-        <v>42.29183333333341</v>
+        <v>42.28950000000007</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="C42" t="n">
         <v>42.3</v>
       </c>
-      <c r="C42" t="n">
-        <v>42.32</v>
-      </c>
       <c r="D42" t="n">
-        <v>42.32</v>
+        <v>42.34</v>
       </c>
       <c r="E42" t="n">
         <v>42.3</v>
       </c>
       <c r="F42" t="n">
-        <v>116.3981</v>
+        <v>21894.7967</v>
       </c>
       <c r="G42" t="n">
-        <v>42.29216666666674</v>
+        <v>42.29183333333341</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>42.3</v>
       </c>
       <c r="C43" t="n">
-        <v>42.27</v>
+        <v>42.32</v>
       </c>
       <c r="D43" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="E43" t="n">
         <v>42.3</v>
       </c>
-      <c r="E43" t="n">
-        <v>42.25</v>
-      </c>
       <c r="F43" t="n">
-        <v>22423.779</v>
+        <v>116.3981</v>
       </c>
       <c r="G43" t="n">
-        <v>42.29166666666674</v>
+        <v>42.29216666666674</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42.25</v>
+        <v>42.3</v>
       </c>
       <c r="C44" t="n">
-        <v>42.25</v>
+        <v>42.27</v>
       </c>
       <c r="D44" t="n">
-        <v>42.25</v>
+        <v>42.3</v>
       </c>
       <c r="E44" t="n">
         <v>42.25</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>22423.779</v>
       </c>
       <c r="G44" t="n">
-        <v>42.28883333333341</v>
+        <v>42.29166666666674</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.23</v>
+        <v>42.25</v>
       </c>
       <c r="C45" t="n">
-        <v>42.23</v>
+        <v>42.25</v>
       </c>
       <c r="D45" t="n">
-        <v>42.23</v>
+        <v>42.25</v>
       </c>
       <c r="E45" t="n">
-        <v>42.23</v>
+        <v>42.25</v>
       </c>
       <c r="F45" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G45" t="n">
-        <v>42.28283333333341</v>
+        <v>42.28883333333341</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.25</v>
+        <v>42.23</v>
       </c>
       <c r="C46" t="n">
-        <v>42.35</v>
+        <v>42.23</v>
       </c>
       <c r="D46" t="n">
-        <v>42.35</v>
+        <v>42.23</v>
       </c>
       <c r="E46" t="n">
         <v>42.23</v>
       </c>
       <c r="F46" t="n">
-        <v>8210.762199999999</v>
+        <v>96</v>
       </c>
       <c r="G46" t="n">
-        <v>42.2803333333334</v>
+        <v>42.28283333333341</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>42.25</v>
       </c>
       <c r="C47" t="n">
-        <v>42.1</v>
+        <v>42.35</v>
       </c>
       <c r="D47" t="n">
-        <v>42.25</v>
+        <v>42.35</v>
       </c>
       <c r="E47" t="n">
-        <v>42.1</v>
+        <v>42.23</v>
       </c>
       <c r="F47" t="n">
-        <v>100640664.4375</v>
+        <v>8210.762199999999</v>
       </c>
       <c r="G47" t="n">
-        <v>42.27366666666673</v>
+        <v>42.2803333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>42.12</v>
+        <v>42.25</v>
       </c>
       <c r="C48" t="n">
-        <v>42.12</v>
+        <v>42.1</v>
       </c>
       <c r="D48" t="n">
-        <v>42.12</v>
+        <v>42.25</v>
       </c>
       <c r="E48" t="n">
-        <v>42.12</v>
+        <v>42.1</v>
       </c>
       <c r="F48" t="n">
-        <v>2180</v>
+        <v>100640664.4375</v>
       </c>
       <c r="G48" t="n">
-        <v>42.2673333333334</v>
+        <v>42.27366666666673</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>42.1</v>
+        <v>42.12</v>
       </c>
       <c r="C49" t="n">
-        <v>42</v>
+        <v>42.12</v>
       </c>
       <c r="D49" t="n">
-        <v>42.1</v>
+        <v>42.12</v>
       </c>
       <c r="E49" t="n">
-        <v>42</v>
+        <v>42.12</v>
       </c>
       <c r="F49" t="n">
-        <v>161358.8421</v>
+        <v>2180</v>
       </c>
       <c r="G49" t="n">
-        <v>42.25750000000006</v>
+        <v>42.2673333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>42.1</v>
       </c>
       <c r="C50" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
         <v>42.1</v>
       </c>
       <c r="E50" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="F50" t="n">
-        <v>6946.5839</v>
+        <v>161358.8421</v>
       </c>
       <c r="G50" t="n">
-        <v>42.2493333333334</v>
+        <v>42.25750000000006</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>42.1</v>
       </c>
       <c r="F51" t="n">
-        <v>14465.2075</v>
+        <v>6946.5839</v>
       </c>
       <c r="G51" t="n">
-        <v>42.24450000000006</v>
+        <v>42.2493333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42.12</v>
+        <v>42.1</v>
       </c>
       <c r="C52" t="n">
-        <v>42.02</v>
+        <v>42.1</v>
       </c>
       <c r="D52" t="n">
-        <v>42.12</v>
+        <v>42.1</v>
       </c>
       <c r="E52" t="n">
-        <v>42.02</v>
+        <v>42.1</v>
       </c>
       <c r="F52" t="n">
-        <v>48092.8585</v>
+        <v>14465.2075</v>
       </c>
       <c r="G52" t="n">
-        <v>42.24050000000006</v>
+        <v>42.24450000000006</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>42.02</v>
+        <v>42.12</v>
       </c>
       <c r="C53" t="n">
         <v>42.02</v>
       </c>
       <c r="D53" t="n">
-        <v>42.02</v>
+        <v>42.12</v>
       </c>
       <c r="E53" t="n">
         <v>42.02</v>
       </c>
       <c r="F53" t="n">
-        <v>5406.1836</v>
+        <v>48092.8585</v>
       </c>
       <c r="G53" t="n">
-        <v>42.23650000000006</v>
+        <v>42.24050000000006</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>42.01</v>
+        <v>42.02</v>
       </c>
       <c r="C54" t="n">
-        <v>42.09</v>
+        <v>42.02</v>
       </c>
       <c r="D54" t="n">
-        <v>42.09</v>
+        <v>42.02</v>
       </c>
       <c r="E54" t="n">
-        <v>42.01</v>
+        <v>42.02</v>
       </c>
       <c r="F54" t="n">
-        <v>742.4339</v>
+        <v>5406.1836</v>
       </c>
       <c r="G54" t="n">
-        <v>42.23500000000006</v>
+        <v>42.23650000000006</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>42.12</v>
+        <v>42.01</v>
       </c>
       <c r="C55" t="n">
-        <v>42.17</v>
+        <v>42.09</v>
       </c>
       <c r="D55" t="n">
-        <v>42.17</v>
+        <v>42.09</v>
       </c>
       <c r="E55" t="n">
-        <v>42.12</v>
+        <v>42.01</v>
       </c>
       <c r="F55" t="n">
-        <v>135.1293</v>
+        <v>742.4339</v>
       </c>
       <c r="G55" t="n">
-        <v>42.23516666666673</v>
+        <v>42.23500000000006</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>42.15</v>
+        <v>42.12</v>
       </c>
       <c r="C56" t="n">
-        <v>42.02</v>
+        <v>42.17</v>
       </c>
       <c r="D56" t="n">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="E56" t="n">
-        <v>42.02</v>
+        <v>42.12</v>
       </c>
       <c r="F56" t="n">
-        <v>73.4319</v>
+        <v>135.1293</v>
       </c>
       <c r="G56" t="n">
-        <v>42.2328333333334</v>
+        <v>42.23516666666673</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>42.05</v>
+        <v>42.15</v>
       </c>
       <c r="C57" t="n">
-        <v>42.05</v>
+        <v>42.02</v>
       </c>
       <c r="D57" t="n">
-        <v>42.05</v>
+        <v>42.15</v>
       </c>
       <c r="E57" t="n">
-        <v>42.05</v>
+        <v>42.02</v>
       </c>
       <c r="F57" t="n">
-        <v>27984.5391</v>
+        <v>73.4319</v>
       </c>
       <c r="G57" t="n">
-        <v>42.23200000000007</v>
+        <v>42.2328333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>42.05</v>
       </c>
       <c r="C58" t="n">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="D58" t="n">
         <v>42.05</v>
       </c>
       <c r="E58" t="n">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="F58" t="n">
-        <v>57067.68340476</v>
+        <v>27984.5391</v>
       </c>
       <c r="G58" t="n">
-        <v>42.23033333333341</v>
+        <v>42.23200000000007</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.92</v>
+        <v>42.05</v>
       </c>
       <c r="C59" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>41.92</v>
+        <v>42.05</v>
       </c>
       <c r="E59" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
-        <v>19284.7563</v>
+        <v>57067.68340476</v>
       </c>
       <c r="G59" t="n">
-        <v>42.22900000000007</v>
+        <v>42.23033333333341</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="C60" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="D60" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="E60" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="F60" t="n">
-        <v>772</v>
+        <v>19284.7563</v>
       </c>
       <c r="G60" t="n">
-        <v>42.22816666666674</v>
+        <v>42.22900000000007</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>41.95</v>
       </c>
       <c r="F61" t="n">
-        <v>19228</v>
+        <v>772</v>
       </c>
       <c r="G61" t="n">
-        <v>42.2273333333334</v>
+        <v>42.22816666666674</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>41.95</v>
       </c>
       <c r="F62" t="n">
-        <v>108.0426</v>
+        <v>19228</v>
       </c>
       <c r="G62" t="n">
-        <v>42.22650000000007</v>
+        <v>42.2273333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>41.95</v>
       </c>
       <c r="F63" t="n">
-        <v>4084.8629</v>
+        <v>108.0426</v>
       </c>
       <c r="G63" t="n">
-        <v>42.22216666666672</v>
+        <v>42.22650000000007</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="C64" t="n">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="D64" t="n">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="E64" t="n">
-        <v>41.92</v>
+        <v>41.95</v>
       </c>
       <c r="F64" t="n">
-        <v>7471.9788</v>
+        <v>4084.8629</v>
       </c>
       <c r="G64" t="n">
-        <v>42.2168333333334</v>
+        <v>42.22216666666672</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>41.92</v>
       </c>
       <c r="F65" t="n">
-        <v>3243.2649</v>
+        <v>7471.9788</v>
       </c>
       <c r="G65" t="n">
-        <v>42.21550000000006</v>
+        <v>42.2168333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>41.91</v>
+        <v>41.92</v>
       </c>
       <c r="C66" t="n">
         <v>41.92</v>
@@ -2682,13 +2682,13 @@
         <v>41.92</v>
       </c>
       <c r="E66" t="n">
-        <v>41.91</v>
+        <v>41.92</v>
       </c>
       <c r="F66" t="n">
-        <v>25998.4915</v>
+        <v>3243.2649</v>
       </c>
       <c r="G66" t="n">
-        <v>42.21000000000006</v>
+        <v>42.21550000000006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>41.86</v>
+        <v>41.91</v>
       </c>
       <c r="C67" t="n">
-        <v>41.85</v>
+        <v>41.92</v>
       </c>
       <c r="D67" t="n">
-        <v>41.86</v>
+        <v>41.92</v>
       </c>
       <c r="E67" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="F67" t="n">
-        <v>36283.6502</v>
+        <v>25998.4915</v>
       </c>
       <c r="G67" t="n">
-        <v>42.20316666666672</v>
+        <v>42.21000000000006</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.92</v>
+        <v>41.86</v>
       </c>
       <c r="C68" t="n">
-        <v>41.92</v>
+        <v>41.85</v>
       </c>
       <c r="D68" t="n">
-        <v>41.92</v>
+        <v>41.86</v>
       </c>
       <c r="E68" t="n">
-        <v>41.92</v>
+        <v>41.85</v>
       </c>
       <c r="F68" t="n">
-        <v>2933.9738</v>
+        <v>36283.6502</v>
       </c>
       <c r="G68" t="n">
-        <v>42.19716666666672</v>
+        <v>42.20316666666672</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>41.92</v>
       </c>
       <c r="F69" t="n">
-        <v>10118.5547</v>
+        <v>2933.9738</v>
       </c>
       <c r="G69" t="n">
-        <v>42.19483333333339</v>
+        <v>42.19716666666672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.85</v>
+        <v>41.92</v>
       </c>
       <c r="C70" t="n">
         <v>41.92</v>
@@ -2822,13 +2822,13 @@
         <v>41.92</v>
       </c>
       <c r="E70" t="n">
-        <v>41.85</v>
+        <v>41.92</v>
       </c>
       <c r="F70" t="n">
-        <v>1884.1935</v>
+        <v>10118.5547</v>
       </c>
       <c r="G70" t="n">
-        <v>42.18883333333339</v>
+        <v>42.19483333333339</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="C71" t="n">
-        <v>41.91</v>
+        <v>41.92</v>
       </c>
       <c r="D71" t="n">
-        <v>41.91</v>
+        <v>41.92</v>
       </c>
       <c r="E71" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="F71" t="n">
-        <v>1149.3021</v>
+        <v>1884.1935</v>
       </c>
       <c r="G71" t="n">
-        <v>42.18283333333339</v>
+        <v>42.18883333333339</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>41.91</v>
       </c>
       <c r="F72" t="n">
-        <v>1150.6979</v>
+        <v>1149.3021</v>
       </c>
       <c r="G72" t="n">
-        <v>42.17966666666673</v>
+        <v>42.18283333333339</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>41.91</v>
       </c>
       <c r="F73" t="n">
-        <v>635.5961</v>
+        <v>1150.6979</v>
       </c>
       <c r="G73" t="n">
-        <v>42.17350000000005</v>
+        <v>42.17966666666673</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="C74" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="D74" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="E74" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>635.5961</v>
       </c>
       <c r="G74" t="n">
-        <v>42.16633333333338</v>
+        <v>42.17350000000005</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="C75" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="D75" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="E75" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="F75" t="n">
-        <v>8330.4149</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>42.1601666666667</v>
+        <v>42.16633333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="C76" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="D76" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="E76" t="n">
-        <v>41.85</v>
+        <v>41.91</v>
       </c>
       <c r="F76" t="n">
-        <v>2731.2932</v>
+        <v>8330.4149</v>
       </c>
       <c r="G76" t="n">
-        <v>42.15300000000003</v>
+        <v>42.1601666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>41.85</v>
       </c>
       <c r="F77" t="n">
-        <v>5320.2227</v>
+        <v>2731.2932</v>
       </c>
       <c r="G77" t="n">
-        <v>42.14583333333336</v>
+        <v>42.15300000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.82</v>
+        <v>41.85</v>
       </c>
       <c r="C78" t="n">
-        <v>41.8</v>
+        <v>41.85</v>
       </c>
       <c r="D78" t="n">
-        <v>41.82</v>
+        <v>41.85</v>
       </c>
       <c r="E78" t="n">
-        <v>41.8</v>
+        <v>41.85</v>
       </c>
       <c r="F78" t="n">
-        <v>43781.3256</v>
+        <v>5320.2227</v>
       </c>
       <c r="G78" t="n">
-        <v>42.13583333333337</v>
+        <v>42.14583333333336</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="C79" t="n">
         <v>41.8</v>
       </c>
       <c r="D79" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="E79" t="n">
         <v>41.8</v>
       </c>
       <c r="F79" t="n">
-        <v>6042.1486</v>
+        <v>43781.3256</v>
       </c>
       <c r="G79" t="n">
-        <v>42.12633333333337</v>
+        <v>42.13583333333337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>41.8</v>
       </c>
       <c r="C80" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="D80" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="E80" t="n">
         <v>41.8</v>
       </c>
       <c r="F80" t="n">
-        <v>38328.9075</v>
+        <v>6042.1486</v>
       </c>
       <c r="G80" t="n">
-        <v>42.1166666666667</v>
+        <v>42.12633333333337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="C81" t="n">
         <v>41.82</v>
@@ -3207,13 +3207,13 @@
         <v>41.82</v>
       </c>
       <c r="E81" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="F81" t="n">
-        <v>2129.8506</v>
+        <v>38328.9075</v>
       </c>
       <c r="G81" t="n">
-        <v>42.11016666666671</v>
+        <v>42.1166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>41.82</v>
       </c>
       <c r="F82" t="n">
-        <v>4027.3844</v>
+        <v>2129.8506</v>
       </c>
       <c r="G82" t="n">
-        <v>42.10083333333338</v>
+        <v>42.11016666666671</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>41.82</v>
       </c>
       <c r="F83" t="n">
-        <v>15373.4118</v>
+        <v>4027.3844</v>
       </c>
       <c r="G83" t="n">
-        <v>42.09283333333337</v>
+        <v>42.10083333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>41.82</v>
       </c>
       <c r="F84" t="n">
-        <v>1282.5932</v>
+        <v>15373.4118</v>
       </c>
       <c r="G84" t="n">
-        <v>42.08483333333337</v>
+        <v>42.09283333333337</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="C85" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="D85" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="E85" t="n">
-        <v>41.8</v>
+        <v>41.82</v>
       </c>
       <c r="F85" t="n">
-        <v>2702.9012</v>
+        <v>1282.5932</v>
       </c>
       <c r="G85" t="n">
-        <v>42.07483333333337</v>
+        <v>42.08483333333337</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41.87</v>
+        <v>41.8</v>
       </c>
       <c r="C86" t="n">
-        <v>41.87</v>
+        <v>41.8</v>
       </c>
       <c r="D86" t="n">
-        <v>41.87</v>
+        <v>41.8</v>
       </c>
       <c r="E86" t="n">
-        <v>41.87</v>
+        <v>41.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1400</v>
+        <v>2702.9012</v>
       </c>
       <c r="G86" t="n">
-        <v>42.0676666666667</v>
+        <v>42.07483333333337</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>41.87</v>
       </c>
       <c r="F87" t="n">
-        <v>1009.0446</v>
+        <v>1400</v>
       </c>
       <c r="G87" t="n">
-        <v>42.05883333333337</v>
+        <v>42.0676666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>41.87</v>
       </c>
       <c r="F88" t="n">
-        <v>391.85</v>
+        <v>1009.0446</v>
       </c>
       <c r="G88" t="n">
-        <v>42.05000000000003</v>
+        <v>42.05883333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>41.87</v>
       </c>
       <c r="F89" t="n">
-        <v>71.4307</v>
+        <v>391.85</v>
       </c>
       <c r="G89" t="n">
-        <v>42.04283333333336</v>
+        <v>42.05000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>41.87</v>
       </c>
       <c r="F90" t="n">
-        <v>238.8344877</v>
+        <v>71.4307</v>
       </c>
       <c r="G90" t="n">
-        <v>42.03566666666669</v>
+        <v>42.04283333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>41.87</v>
       </c>
       <c r="F91" t="n">
-        <v>14888.3402123</v>
+        <v>238.8344877</v>
       </c>
       <c r="G91" t="n">
-        <v>42.02766666666669</v>
+        <v>42.03566666666669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>41.87</v>
       </c>
       <c r="F92" t="n">
-        <v>1126</v>
+        <v>14888.3402123</v>
       </c>
       <c r="G92" t="n">
-        <v>42.01966666666669</v>
+        <v>42.02766666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>41.87</v>
       </c>
       <c r="F93" t="n">
-        <v>1505.5072</v>
+        <v>1126</v>
       </c>
       <c r="G93" t="n">
-        <v>42.01250000000002</v>
+        <v>42.01966666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>41.89</v>
+        <v>41.87</v>
       </c>
       <c r="C94" t="n">
-        <v>41.77</v>
+        <v>41.87</v>
       </c>
       <c r="D94" t="n">
-        <v>41.89</v>
+        <v>41.87</v>
       </c>
       <c r="E94" t="n">
-        <v>41.77</v>
+        <v>41.87</v>
       </c>
       <c r="F94" t="n">
-        <v>9074.9586877</v>
+        <v>1505.5072</v>
       </c>
       <c r="G94" t="n">
-        <v>42.00366666666668</v>
+        <v>42.01250000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>41.77</v>
+        <v>41.89</v>
       </c>
       <c r="C95" t="n">
         <v>41.77</v>
       </c>
       <c r="D95" t="n">
-        <v>41.77</v>
+        <v>41.89</v>
       </c>
       <c r="E95" t="n">
         <v>41.77</v>
       </c>
       <c r="F95" t="n">
-        <v>949.2877</v>
+        <v>9074.9586877</v>
       </c>
       <c r="G95" t="n">
-        <v>41.99316666666667</v>
+        <v>42.00366666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>41.77</v>
       </c>
       <c r="F96" t="n">
-        <v>3858.0732</v>
+        <v>949.2877</v>
       </c>
       <c r="G96" t="n">
-        <v>41.98266666666667</v>
+        <v>41.99316666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>41.7</v>
+        <v>41.77</v>
       </c>
       <c r="C97" t="n">
-        <v>41.63</v>
+        <v>41.77</v>
       </c>
       <c r="D97" t="n">
         <v>41.77</v>
       </c>
       <c r="E97" t="n">
-        <v>41.63</v>
+        <v>41.77</v>
       </c>
       <c r="F97" t="n">
-        <v>56664.783</v>
+        <v>3858.0732</v>
       </c>
       <c r="G97" t="n">
-        <v>41.97066666666668</v>
+        <v>41.98266666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>41.63</v>
+        <v>41.7</v>
       </c>
       <c r="C98" t="n">
         <v>41.63</v>
       </c>
       <c r="D98" t="n">
-        <v>41.63</v>
+        <v>41.77</v>
       </c>
       <c r="E98" t="n">
         <v>41.63</v>
       </c>
       <c r="F98" t="n">
-        <v>14381.0945</v>
+        <v>56664.783</v>
       </c>
       <c r="G98" t="n">
-        <v>41.95866666666668</v>
+        <v>41.97066666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>41.63</v>
       </c>
       <c r="F99" t="n">
-        <v>7604.6736</v>
+        <v>14381.0945</v>
       </c>
       <c r="G99" t="n">
-        <v>41.94666666666669</v>
+        <v>41.95866666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>41.63</v>
       </c>
       <c r="F100" t="n">
-        <v>973.7395</v>
+        <v>7604.6736</v>
       </c>
       <c r="G100" t="n">
-        <v>41.93466666666669</v>
+        <v>41.94666666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>41.63</v>
       </c>
       <c r="F101" t="n">
-        <v>28831.0105</v>
+        <v>973.7395</v>
       </c>
       <c r="G101" t="n">
-        <v>41.92350000000002</v>
+        <v>41.93466666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>41.64</v>
+        <v>41.63</v>
       </c>
       <c r="C102" t="n">
         <v>41.63</v>
       </c>
       <c r="D102" t="n">
-        <v>41.64</v>
+        <v>41.63</v>
       </c>
       <c r="E102" t="n">
         <v>41.63</v>
       </c>
       <c r="F102" t="n">
-        <v>56345.4285</v>
+        <v>28831.0105</v>
       </c>
       <c r="G102" t="n">
-        <v>41.91200000000002</v>
+        <v>41.92350000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="C103" t="n">
         <v>41.63</v>
       </c>
-      <c r="C103" t="n">
-        <v>41.57</v>
-      </c>
       <c r="D103" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="E103" t="n">
         <v>41.63</v>
       </c>
-      <c r="E103" t="n">
-        <v>41.57</v>
-      </c>
       <c r="F103" t="n">
-        <v>1648.415</v>
+        <v>56345.4285</v>
       </c>
       <c r="G103" t="n">
-        <v>41.90033333333336</v>
+        <v>41.91200000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>41.53</v>
+        <v>41.63</v>
       </c>
       <c r="C104" t="n">
-        <v>41.53</v>
+        <v>41.57</v>
       </c>
       <c r="D104" t="n">
-        <v>41.53</v>
+        <v>41.63</v>
       </c>
       <c r="E104" t="n">
-        <v>41.53</v>
+        <v>41.57</v>
       </c>
       <c r="F104" t="n">
-        <v>2195.3897</v>
+        <v>1648.415</v>
       </c>
       <c r="G104" t="n">
-        <v>41.88833333333336</v>
+        <v>41.90033333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41.4</v>
+        <v>41.53</v>
       </c>
       <c r="C105" t="n">
-        <v>41.4</v>
+        <v>41.53</v>
       </c>
       <c r="D105" t="n">
-        <v>41.4</v>
+        <v>41.53</v>
       </c>
       <c r="E105" t="n">
-        <v>41.4</v>
+        <v>41.53</v>
       </c>
       <c r="F105" t="n">
-        <v>47194.5372</v>
+        <v>2195.3897</v>
       </c>
       <c r="G105" t="n">
-        <v>41.87450000000003</v>
+        <v>41.88833333333336</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,35 +4073,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>41.63</v>
+        <v>41.4</v>
       </c>
       <c r="C106" t="n">
-        <v>41.63</v>
+        <v>41.4</v>
       </c>
       <c r="D106" t="n">
-        <v>41.63</v>
+        <v>41.4</v>
       </c>
       <c r="E106" t="n">
-        <v>41.63</v>
+        <v>41.4</v>
       </c>
       <c r="F106" t="n">
-        <v>84.0739851</v>
+        <v>47194.5372</v>
       </c>
       <c r="G106" t="n">
-        <v>41.86250000000003</v>
+        <v>41.87450000000003</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K106" t="n">
-        <v>41.4</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4124,2863 +4120,2467 @@
         <v>41.63</v>
       </c>
       <c r="F107" t="n">
+        <v>84.0739851</v>
+      </c>
+      <c r="G107" t="n">
+        <v>41.86250000000003</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="C108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="E108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F108" t="n">
         <v>2256.2211</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G108" t="n">
         <v>41.8546666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>41.63</v>
       </c>
-      <c r="K107" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="C109" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="D109" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="E109" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F109" t="n">
+        <v>391.6434149</v>
+      </c>
+      <c r="G109" t="n">
+        <v>41.84650000000003</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="C110" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="D110" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="E110" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1073.5485</v>
+      </c>
+      <c r="G110" t="n">
+        <v>41.83933333333337</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C111" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D111" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="E111" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F111" t="n">
+        <v>23800</v>
+      </c>
+      <c r="G111" t="n">
+        <v>41.83366666666671</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="C112" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="D112" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="E112" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G112" t="n">
+        <v>41.82550000000005</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="C113" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="D113" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="E113" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34224.6216</v>
+      </c>
+      <c r="G113" t="n">
+        <v>41.81750000000005</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="D114" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="E114" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>228.5471</v>
+      </c>
+      <c r="G114" t="n">
+        <v>41.81066666666672</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>494.3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>41.80416666666671</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>41.79633333333337</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>64.8468</v>
+      </c>
+      <c r="G117" t="n">
+        <v>41.79433333333338</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>21426.15751789</v>
+      </c>
+      <c r="G118" t="n">
+        <v>41.79183333333337</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="C119" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="D119" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="E119" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="F119" t="n">
+        <v>250</v>
+      </c>
+      <c r="G119" t="n">
+        <v>41.78583333333337</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2249.1231</v>
+      </c>
+      <c r="G120" t="n">
+        <v>41.78050000000004</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G121" t="n">
+        <v>41.7746666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>33.3658</v>
+      </c>
+      <c r="G122" t="n">
+        <v>41.77050000000004</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>41410.243</v>
+      </c>
+      <c r="G123" t="n">
+        <v>41.76633333333337</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>41.76216666666671</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>212.663</v>
+      </c>
+      <c r="G125" t="n">
+        <v>41.75850000000003</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="C126" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="D126" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="E126" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="F126" t="n">
+        <v>27541.7978</v>
+      </c>
+      <c r="G126" t="n">
+        <v>41.75700000000003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="C127" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="E127" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4753.59764351</v>
+      </c>
+      <c r="G127" t="n">
+        <v>41.7566666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C128" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E128" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F128" t="n">
+        <v>808.2424</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41.7556666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C129" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D129" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E129" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F129" t="n">
+        <v>388</v>
+      </c>
+      <c r="G129" t="n">
+        <v>41.75350000000003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C130" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="D130" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="E130" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F130" t="n">
+        <v>866.5344</v>
+      </c>
+      <c r="G130" t="n">
+        <v>41.75450000000003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="C131" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="D131" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="E131" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="F131" t="n">
+        <v>49.7886</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41.75550000000003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="C132" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="D132" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="E132" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="F132" t="n">
+        <v>164106.8994</v>
+      </c>
+      <c r="G132" t="n">
+        <v>41.75133333333336</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2646</v>
+      </c>
+      <c r="G133" t="n">
+        <v>41.7511666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="C134" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="D134" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="E134" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F134" t="n">
+        <v>915.0088</v>
+      </c>
+      <c r="G134" t="n">
+        <v>41.7506666666667</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="C135" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D135" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="E135" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F135" t="n">
+        <v>27421.5107</v>
+      </c>
+      <c r="G135" t="n">
+        <v>41.74916666666671</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C136" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D136" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="E136" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13761.1159</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41.74666666666671</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="C137" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="D137" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="E137" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F137" t="n">
+        <v>132.6408787</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41.74716666666672</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="D138" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="E138" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3088.6999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41.74516666666672</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="C139" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="D139" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="E139" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>493.3441</v>
+      </c>
+      <c r="G139" t="n">
+        <v>41.74633333333338</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="C140" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="D140" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="E140" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F140" t="n">
+        <v>23818.1885</v>
+      </c>
+      <c r="G140" t="n">
+        <v>41.74766666666672</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C141" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D141" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E141" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F141" t="n">
+        <v>65.62425399</v>
+      </c>
+      <c r="G141" t="n">
+        <v>41.74883333333337</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C142" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D142" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F142" t="n">
+        <v>71.41370000000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>41.75000000000004</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="D143" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E143" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="F143" t="n">
+        <v>65.6242</v>
+      </c>
+      <c r="G143" t="n">
+        <v>41.74883333333337</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C144" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D144" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F144" t="n">
+        <v>115.3704</v>
+      </c>
+      <c r="G144" t="n">
+        <v>41.75000000000003</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C145" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D145" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E145" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F145" t="n">
+        <v>71.41370000000001</v>
+      </c>
+      <c r="G145" t="n">
+        <v>41.75116666666669</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C146" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D146" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5069.9398</v>
+      </c>
+      <c r="G146" t="n">
+        <v>41.75050000000002</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C147" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E147" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1866.75844601</v>
+      </c>
+      <c r="G147" t="n">
+        <v>41.75083333333336</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16.9452</v>
+      </c>
+      <c r="G148" t="n">
+        <v>41.75133333333336</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C149" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E149" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18177.9966</v>
+      </c>
+      <c r="G149" t="n">
+        <v>41.7496666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="C150" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D150" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="E150" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9537.597900000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>41.74816666666671</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="C151" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="D151" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="E151" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1005.9015</v>
+      </c>
+      <c r="G151" t="n">
+        <v>41.7491666666667</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="D152" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="E152" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4163.7504</v>
+      </c>
+      <c r="G152" t="n">
+        <v>41.7501666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="C153" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="D153" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16005.8169</v>
+      </c>
+      <c r="G153" t="n">
+        <v>41.7511666666667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>42</v>
+      </c>
+      <c r="C154" t="n">
+        <v>42</v>
+      </c>
+      <c r="D154" t="n">
+        <v>42</v>
+      </c>
+      <c r="E154" t="n">
+        <v>42</v>
+      </c>
+      <c r="F154" t="n">
+        <v>68.0829</v>
+      </c>
+      <c r="G154" t="n">
+        <v>41.75333333333337</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="C155" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="D155" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="E155" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2806</v>
+      </c>
+      <c r="G155" t="n">
+        <v>41.75500000000003</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="D156" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F156" t="n">
+        <v>292037.0619</v>
+      </c>
+      <c r="G156" t="n">
+        <v>41.75233333333337</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="C157" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D157" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7751.3667</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41.75266666666671</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G158" t="n">
+        <v>41.75550000000003</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C159" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D159" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E159" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F159" t="n">
+        <v>238.72045834</v>
+      </c>
+      <c r="G159" t="n">
+        <v>41.75983333333337</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="C160" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="D160" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="E160" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="F160" t="n">
+        <v>200</v>
+      </c>
+      <c r="G160" t="n">
+        <v>41.76333333333336</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1731.1641</v>
+      </c>
+      <c r="G161" t="n">
+        <v>41.7661666666667</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>669.7805</v>
+      </c>
+      <c r="G162" t="n">
+        <v>41.76900000000003</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="D163" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E163" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7498.7958</v>
+      </c>
+      <c r="G163" t="n">
+        <v>41.77216666666671</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="C164" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="D164" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="E164" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6076.5421</v>
+      </c>
+      <c r="G164" t="n">
+        <v>41.7761666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="C165" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="D165" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="E165" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8183.2968</v>
+      </c>
+      <c r="G165" t="n">
+        <v>41.78083333333336</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="C166" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="D166" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="E166" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="F166" t="n">
+        <v>628.3084</v>
+      </c>
+      <c r="G166" t="n">
+        <v>41.7836666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C167" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D167" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="E167" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11559.5512</v>
+      </c>
+      <c r="G167" t="n">
+        <v>41.78583333333336</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C168" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E168" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12344.1583</v>
+      </c>
+      <c r="G168" t="n">
+        <v>41.78533333333336</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E169" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>76.64670658</v>
+      </c>
+      <c r="G169" t="n">
+        <v>41.78733333333336</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="C170" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="D170" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="E170" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3179.8687</v>
+      </c>
+      <c r="G170" t="n">
+        <v>41.78733333333336</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C171" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="D171" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E171" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11.9761</v>
+      </c>
+      <c r="G171" t="n">
+        <v>41.78716666666669</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="K171" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>369.1853</v>
+      </c>
+      <c r="G172" t="n">
+        <v>41.78700000000002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="C108" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="D108" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="E108" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="F108" t="n">
-        <v>391.6434149</v>
-      </c>
-      <c r="G108" t="n">
-        <v>41.84650000000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K108" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="C173" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="D173" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="E173" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F173" t="n">
+        <v>33812.5162</v>
+      </c>
+      <c r="G173" t="n">
+        <v>41.78816666666669</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="C109" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="D109" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="E109" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1073.5485</v>
-      </c>
-      <c r="G109" t="n">
-        <v>41.83933333333337</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K109" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C110" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D110" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E110" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F110" t="n">
-        <v>23800</v>
-      </c>
-      <c r="G110" t="n">
-        <v>41.83366666666671</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="K110" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="C174" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="D174" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="E174" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6273.2819</v>
+      </c>
+      <c r="G174" t="n">
+        <v>41.79016666666669</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="K174" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="C175" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="D175" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="E175" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F175" t="n">
+        <v>23250</v>
+      </c>
+      <c r="G175" t="n">
+        <v>41.79066666666669</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="C176" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D176" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="E176" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13950</v>
+      </c>
+      <c r="G176" t="n">
+        <v>41.79200000000003</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
         <v>41.61</v>
       </c>
-      <c r="C111" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="D111" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="E111" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G111" t="n">
-        <v>41.82550000000005</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="K111" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="L176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="C112" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="D112" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="E112" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="F112" t="n">
-        <v>34224.6216</v>
-      </c>
-      <c r="G112" t="n">
-        <v>41.81750000000005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="K112" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="C113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="D113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="E113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="F113" t="n">
-        <v>228.5471</v>
-      </c>
-      <c r="G113" t="n">
-        <v>41.81066666666672</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>494.3</v>
-      </c>
-      <c r="G114" t="n">
-        <v>41.80416666666671</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F115" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="G115" t="n">
-        <v>41.79633333333337</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>64.8468</v>
-      </c>
-      <c r="G116" t="n">
-        <v>41.79433333333338</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D117" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F117" t="n">
-        <v>21426.15751789</v>
-      </c>
-      <c r="G117" t="n">
-        <v>41.79183333333337</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="C118" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="D118" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="E118" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="F118" t="n">
-        <v>250</v>
-      </c>
-      <c r="G118" t="n">
-        <v>41.78583333333337</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C119" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E119" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2249.1231</v>
-      </c>
-      <c r="G119" t="n">
-        <v>41.78050000000004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C120" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D120" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E120" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G120" t="n">
-        <v>41.7746666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C121" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D121" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E121" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>33.3658</v>
-      </c>
-      <c r="G121" t="n">
-        <v>41.77050000000004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>41410.243</v>
-      </c>
-      <c r="G122" t="n">
-        <v>41.76633333333337</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>41.76216666666671</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C124" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E124" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>212.663</v>
-      </c>
-      <c r="G124" t="n">
-        <v>41.75850000000003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="C125" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="D125" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="E125" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="F125" t="n">
-        <v>27541.7978</v>
-      </c>
-      <c r="G125" t="n">
-        <v>41.75700000000003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="C126" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="E126" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4753.59764351</v>
-      </c>
-      <c r="G126" t="n">
-        <v>41.7566666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C127" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D127" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E127" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F127" t="n">
-        <v>808.2424</v>
-      </c>
-      <c r="G127" t="n">
-        <v>41.7556666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C128" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D128" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E128" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F128" t="n">
-        <v>388</v>
-      </c>
-      <c r="G128" t="n">
-        <v>41.75350000000003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C129" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="D129" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="E129" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F129" t="n">
-        <v>866.5344</v>
-      </c>
-      <c r="G129" t="n">
-        <v>41.75450000000003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="C130" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="D130" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="E130" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="F130" t="n">
-        <v>49.7886</v>
-      </c>
-      <c r="G130" t="n">
-        <v>41.75550000000003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="C131" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="D131" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E131" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="F131" t="n">
-        <v>164106.8994</v>
-      </c>
-      <c r="G131" t="n">
-        <v>41.75133333333336</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2646</v>
-      </c>
-      <c r="G132" t="n">
-        <v>41.7511666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="C133" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="D133" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="E133" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="F133" t="n">
-        <v>915.0088</v>
-      </c>
-      <c r="G133" t="n">
-        <v>41.7506666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="C134" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D134" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="E134" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F134" t="n">
-        <v>27421.5107</v>
-      </c>
-      <c r="G134" t="n">
-        <v>41.74916666666671</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C135" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D135" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="E135" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F135" t="n">
-        <v>13761.1159</v>
-      </c>
-      <c r="G135" t="n">
-        <v>41.74666666666671</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="C136" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="D136" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="E136" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="F136" t="n">
-        <v>132.6408787</v>
-      </c>
-      <c r="G136" t="n">
-        <v>41.74716666666672</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="C137" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="D137" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="E137" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3088.6999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>41.74516666666672</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="C138" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="D138" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="E138" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>493.3441</v>
-      </c>
-      <c r="G138" t="n">
-        <v>41.74633333333338</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="C139" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="D139" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="E139" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="F139" t="n">
-        <v>23818.1885</v>
-      </c>
-      <c r="G139" t="n">
-        <v>41.74766666666672</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C140" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D140" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E140" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F140" t="n">
-        <v>65.62425399</v>
-      </c>
-      <c r="G140" t="n">
-        <v>41.74883333333337</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C141" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D141" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E141" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F141" t="n">
-        <v>71.41370000000001</v>
-      </c>
-      <c r="G141" t="n">
-        <v>41.75000000000004</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C142" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="D142" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="E142" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="F142" t="n">
-        <v>65.6242</v>
-      </c>
-      <c r="G142" t="n">
-        <v>41.74883333333337</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C143" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D143" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E143" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F143" t="n">
-        <v>115.3704</v>
-      </c>
-      <c r="G143" t="n">
-        <v>41.75000000000003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C144" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D144" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E144" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F144" t="n">
-        <v>71.41370000000001</v>
-      </c>
-      <c r="G144" t="n">
-        <v>41.75116666666669</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C145" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D145" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="E145" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5069.9398</v>
-      </c>
-      <c r="G145" t="n">
-        <v>41.75050000000002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C146" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D146" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E146" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1866.75844601</v>
-      </c>
-      <c r="G146" t="n">
-        <v>41.75083333333336</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16.9452</v>
-      </c>
-      <c r="G147" t="n">
-        <v>41.75133333333336</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C148" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D148" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E148" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F148" t="n">
-        <v>18177.9966</v>
-      </c>
-      <c r="G148" t="n">
-        <v>41.7496666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="C149" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="D149" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="E149" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F149" t="n">
-        <v>9537.597900000001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>41.74816666666671</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="C150" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="D150" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E150" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1005.9015</v>
-      </c>
-      <c r="G150" t="n">
-        <v>41.7491666666667</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="C151" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="D151" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E151" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4163.7504</v>
-      </c>
-      <c r="G151" t="n">
-        <v>41.7501666666667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="C152" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="D152" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E152" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="F152" t="n">
-        <v>16005.8169</v>
-      </c>
-      <c r="G152" t="n">
-        <v>41.7511666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>42</v>
-      </c>
-      <c r="C153" t="n">
-        <v>42</v>
-      </c>
-      <c r="D153" t="n">
-        <v>42</v>
-      </c>
-      <c r="E153" t="n">
-        <v>42</v>
-      </c>
-      <c r="F153" t="n">
-        <v>68.0829</v>
-      </c>
-      <c r="G153" t="n">
-        <v>41.75333333333337</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="C154" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="D154" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="E154" t="n">
-        <v>41.87</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2806</v>
-      </c>
-      <c r="G154" t="n">
-        <v>41.75500000000003</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="D155" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="F155" t="n">
-        <v>292037.0619</v>
-      </c>
-      <c r="G155" t="n">
-        <v>41.75233333333337</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="C156" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D156" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="F156" t="n">
-        <v>7751.3667</v>
-      </c>
-      <c r="G156" t="n">
-        <v>41.75266666666671</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1420</v>
-      </c>
-      <c r="G157" t="n">
-        <v>41.75550000000003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C158" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D158" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E158" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F158" t="n">
-        <v>238.72045834</v>
-      </c>
-      <c r="G158" t="n">
-        <v>41.75983333333337</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="C159" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="D159" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="E159" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="F159" t="n">
-        <v>200</v>
-      </c>
-      <c r="G159" t="n">
-        <v>41.76333333333336</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1731.1641</v>
-      </c>
-      <c r="G160" t="n">
-        <v>41.7661666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E161" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F161" t="n">
-        <v>669.7805</v>
-      </c>
-      <c r="G161" t="n">
-        <v>41.76900000000003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D162" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E162" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="F162" t="n">
-        <v>7498.7958</v>
-      </c>
-      <c r="G162" t="n">
-        <v>41.77216666666671</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="C163" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="D163" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="E163" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6076.5421</v>
-      </c>
-      <c r="G163" t="n">
-        <v>41.7761666666667</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="C164" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="D164" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="E164" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8183.2968</v>
-      </c>
-      <c r="G164" t="n">
-        <v>41.78083333333336</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="C165" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="D165" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="E165" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="F165" t="n">
-        <v>628.3084</v>
-      </c>
-      <c r="G165" t="n">
-        <v>41.7836666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C166" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D166" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="E166" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11559.5512</v>
-      </c>
-      <c r="G166" t="n">
-        <v>41.78583333333336</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C167" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="E167" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>12344.1583</v>
-      </c>
-      <c r="G167" t="n">
-        <v>41.78533333333336</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C168" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="D168" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="E168" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="F168" t="n">
-        <v>76.64670658</v>
-      </c>
-      <c r="G168" t="n">
-        <v>41.78733333333336</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="C169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="D169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="E169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3179.8687</v>
-      </c>
-      <c r="G169" t="n">
-        <v>41.78733333333336</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C170" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="D170" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="E170" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="F170" t="n">
-        <v>11.9761</v>
-      </c>
-      <c r="G170" t="n">
-        <v>41.78716666666669</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>369.1853</v>
-      </c>
-      <c r="G171" t="n">
-        <v>41.78700000000002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="C172" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="D172" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="E172" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="F172" t="n">
-        <v>33812.5162</v>
-      </c>
-      <c r="G172" t="n">
-        <v>41.78816666666669</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="C173" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="D173" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="E173" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6273.2819</v>
-      </c>
-      <c r="G173" t="n">
-        <v>41.79016666666669</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="C174" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="D174" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="E174" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="F174" t="n">
-        <v>23250</v>
-      </c>
-      <c r="G174" t="n">
-        <v>41.79066666666669</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="C175" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="D175" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="E175" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="F175" t="n">
-        <v>13950</v>
-      </c>
-      <c r="G175" t="n">
-        <v>41.79200000000003</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="C176" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E176" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4051.4218</v>
-      </c>
-      <c r="G176" t="n">
-        <v>41.79033333333336</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6990,22 +6590,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>41.84</v>
+        <v>41.82</v>
       </c>
       <c r="C177" t="n">
-        <v>41.84</v>
+        <v>41.8</v>
       </c>
       <c r="D177" t="n">
-        <v>41.84</v>
+        <v>41.82</v>
       </c>
       <c r="E177" t="n">
-        <v>41.84</v>
+        <v>41.8</v>
       </c>
       <c r="F177" t="n">
-        <v>24.0555</v>
+        <v>4051.4218</v>
       </c>
       <c r="G177" t="n">
-        <v>41.78933333333337</v>
+        <v>41.79033333333336</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7014,14 +6614,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7034,19 +6628,19 @@
         <v>41.84</v>
       </c>
       <c r="C178" t="n">
-        <v>41.89</v>
+        <v>41.84</v>
       </c>
       <c r="D178" t="n">
-        <v>41.89</v>
+        <v>41.84</v>
       </c>
       <c r="E178" t="n">
         <v>41.84</v>
       </c>
       <c r="F178" t="n">
-        <v>1508.9349</v>
+        <v>24.0555</v>
       </c>
       <c r="G178" t="n">
-        <v>41.79350000000003</v>
+        <v>41.78933333333337</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7055,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7072,7 +6660,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>41.89</v>
+        <v>41.84</v>
       </c>
       <c r="C179" t="n">
         <v>41.89</v>
@@ -7081,13 +6669,13 @@
         <v>41.89</v>
       </c>
       <c r="E179" t="n">
-        <v>41.89</v>
+        <v>41.84</v>
       </c>
       <c r="F179" t="n">
-        <v>976</v>
+        <v>1508.9349</v>
       </c>
       <c r="G179" t="n">
-        <v>41.79833333333337</v>
+        <v>41.79350000000003</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7096,14 +6684,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7125,10 +6707,10 @@
         <v>41.89</v>
       </c>
       <c r="F180" t="n">
-        <v>20133.4346</v>
+        <v>976</v>
       </c>
       <c r="G180" t="n">
-        <v>41.8031666666667</v>
+        <v>41.79833333333337</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7137,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7157,19 +6733,19 @@
         <v>41.89</v>
       </c>
       <c r="C181" t="n">
-        <v>41.99</v>
+        <v>41.89</v>
       </c>
       <c r="D181" t="n">
-        <v>41.99</v>
+        <v>41.89</v>
       </c>
       <c r="E181" t="n">
         <v>41.89</v>
       </c>
       <c r="F181" t="n">
-        <v>19960.98414129</v>
+        <v>20133.4346</v>
       </c>
       <c r="G181" t="n">
-        <v>41.80800000000003</v>
+        <v>41.8031666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7178,14 +6754,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7195,7 +6765,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>41.99</v>
+        <v>41.89</v>
       </c>
       <c r="C182" t="n">
         <v>41.99</v>
@@ -7204,13 +6774,13 @@
         <v>41.99</v>
       </c>
       <c r="E182" t="n">
-        <v>41.99</v>
+        <v>41.89</v>
       </c>
       <c r="F182" t="n">
-        <v>15000</v>
+        <v>19960.98414129</v>
       </c>
       <c r="G182" t="n">
-        <v>41.81283333333337</v>
+        <v>41.80800000000003</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7219,14 +6789,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7248,10 +6812,10 @@
         <v>41.99</v>
       </c>
       <c r="F183" t="n">
-        <v>130.1972</v>
+        <v>15000</v>
       </c>
       <c r="G183" t="n">
-        <v>41.8176666666667</v>
+        <v>41.81283333333337</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7260,14 +6824,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7277,22 +6835,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="C184" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="D184" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="E184" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="F184" t="n">
-        <v>29257.6936</v>
+        <v>130.1972</v>
       </c>
       <c r="G184" t="n">
-        <v>41.8226666666667</v>
+        <v>41.8176666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7301,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7330,10 +6882,10 @@
         <v>42</v>
       </c>
       <c r="F185" t="n">
-        <v>55.0739</v>
+        <v>29257.6936</v>
       </c>
       <c r="G185" t="n">
-        <v>41.82550000000003</v>
+        <v>41.8226666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7342,14 +6894,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7359,38 +6905,32 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="C186" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="D186" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="E186" t="n">
-        <v>41.92</v>
+        <v>42</v>
       </c>
       <c r="F186" t="n">
-        <v>300</v>
+        <v>55.0739</v>
       </c>
       <c r="G186" t="n">
-        <v>41.82583333333336</v>
+        <v>41.82550000000003</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7400,38 +6940,32 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>41.96</v>
+        <v>41.92</v>
       </c>
       <c r="C187" t="n">
-        <v>42</v>
+        <v>41.92</v>
       </c>
       <c r="D187" t="n">
-        <v>42</v>
+        <v>41.92</v>
       </c>
       <c r="E187" t="n">
-        <v>41.96</v>
+        <v>41.92</v>
       </c>
       <c r="F187" t="n">
-        <v>46448.0472</v>
+        <v>300</v>
       </c>
       <c r="G187" t="n">
-        <v>41.82933333333337</v>
+        <v>41.82583333333336</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7441,22 +6975,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>42.05</v>
+        <v>41.96</v>
       </c>
       <c r="C188" t="n">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="D188" t="n">
-        <v>42.05</v>
+        <v>42</v>
       </c>
       <c r="E188" t="n">
-        <v>41.97</v>
+        <v>41.96</v>
       </c>
       <c r="F188" t="n">
-        <v>34827.7684</v>
+        <v>46448.0472</v>
       </c>
       <c r="G188" t="n">
-        <v>41.83233333333337</v>
+        <v>41.82933333333337</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7465,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7482,38 +7010,32 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="C189" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="D189" t="n">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="E189" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="F189" t="n">
-        <v>19274.052</v>
+        <v>34827.7684</v>
       </c>
       <c r="G189" t="n">
-        <v>41.8326666666667</v>
+        <v>41.83233333333337</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7523,38 +7045,32 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="C190" t="n">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="D190" t="n">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="E190" t="n">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="F190" t="n">
-        <v>14262.7005</v>
+        <v>19274.052</v>
       </c>
       <c r="G190" t="n">
-        <v>41.83250000000002</v>
+        <v>41.8326666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7564,22 +7080,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>41.96</v>
+        <v>41.97</v>
       </c>
       <c r="C191" t="n">
-        <v>41.95</v>
+        <v>41.97</v>
       </c>
       <c r="D191" t="n">
-        <v>41.96</v>
+        <v>41.97</v>
       </c>
       <c r="E191" t="n">
-        <v>41.95</v>
+        <v>41.97</v>
       </c>
       <c r="F191" t="n">
-        <v>1735.0135</v>
+        <v>14262.7005</v>
       </c>
       <c r="G191" t="n">
-        <v>41.83733333333336</v>
+        <v>41.83250000000002</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7588,16 +7104,10 @@
         <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>1.00268676435263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7605,22 +7115,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>41.95</v>
+        <v>41.96</v>
       </c>
       <c r="C192" t="n">
         <v>41.95</v>
       </c>
       <c r="D192" t="n">
-        <v>41.95</v>
+        <v>41.96</v>
       </c>
       <c r="E192" t="n">
         <v>41.95</v>
       </c>
       <c r="F192" t="n">
-        <v>1112.2855</v>
+        <v>1735.0135</v>
       </c>
       <c r="G192" t="n">
-        <v>41.83816666666669</v>
+        <v>41.83733333333336</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7643,25 +7153,25 @@
         <v>41.95</v>
       </c>
       <c r="C193" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="D193" t="n">
         <v>41.95</v>
       </c>
       <c r="E193" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="F193" t="n">
-        <v>3027.079</v>
+        <v>1112.2855</v>
       </c>
       <c r="G193" t="n">
-        <v>41.83850000000002</v>
+        <v>41.83816666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7670,6 +7180,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="C194" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="E194" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3027.079</v>
+      </c>
+      <c r="G194" t="n">
+        <v>41.83850000000002</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1074.3023</v>
       </c>
       <c r="G2" t="n">
+        <v>42.25266666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>42.24716666666672</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>9.524e-05</v>
       </c>
       <c r="G3" t="n">
+        <v>42.21933333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>42.24266666666672</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4171.57946434</v>
       </c>
       <c r="G4" t="n">
+        <v>42.19999999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>42.24300000000005</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1183.9269</v>
       </c>
       <c r="G5" t="n">
+        <v>42.17666666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>42.24250000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>50000</v>
       </c>
       <c r="G6" t="n">
+        <v>42.13733333333332</v>
+      </c>
+      <c r="H6" t="n">
         <v>42.23800000000005</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>528.40787017</v>
       </c>
       <c r="G7" t="n">
+        <v>42.12799999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>42.23766666666672</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>14.1946</v>
       </c>
       <c r="G8" t="n">
+        <v>42.12799999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>42.23750000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>34224.62157048</v>
       </c>
       <c r="G9" t="n">
+        <v>42.12933333333331</v>
+      </c>
+      <c r="H9" t="n">
         <v>42.23766666666673</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>567.2194</v>
       </c>
       <c r="G10" t="n">
+        <v>42.12133333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>42.23416666666672</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>851.7140000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>42.12933333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>42.2343333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4210.8543</v>
       </c>
       <c r="G12" t="n">
+        <v>42.13666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>42.23733333333339</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1317.7521</v>
       </c>
       <c r="G13" t="n">
+        <v>42.13666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>42.23800000000006</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>121.2186</v>
       </c>
       <c r="G14" t="n">
+        <v>42.14866666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>42.24183333333339</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>115.8328</v>
       </c>
       <c r="G15" t="n">
+        <v>42.16733333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>42.24566666666672</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>44.2965</v>
       </c>
       <c r="G16" t="n">
+        <v>42.18599999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>42.24950000000005</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>971.5825</v>
       </c>
       <c r="G17" t="n">
+        <v>42.20466666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>42.25333333333339</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2350</v>
       </c>
       <c r="G18" t="n">
+        <v>42.22333333333331</v>
+      </c>
+      <c r="H18" t="n">
         <v>42.25716666666673</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8000</v>
       </c>
       <c r="G19" t="n">
+        <v>42.23599999999998</v>
+      </c>
+      <c r="H19" t="n">
         <v>42.25900000000006</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>38822.6167</v>
       </c>
       <c r="G20" t="n">
+        <v>42.24466666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>42.2628333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>41.1243</v>
       </c>
       <c r="G21" t="n">
+        <v>42.27133333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>42.26766666666673</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>18280.6517</v>
       </c>
       <c r="G22" t="n">
+        <v>42.26866666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>42.26733333333339</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>835.3366</v>
       </c>
       <c r="G23" t="n">
+        <v>42.27666666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>42.27250000000006</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3710.77</v>
       </c>
       <c r="G24" t="n">
+        <v>42.27799999999998</v>
+      </c>
+      <c r="H24" t="n">
         <v>42.27616666666673</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>560.2556</v>
       </c>
       <c r="G25" t="n">
+        <v>42.29399999999998</v>
+      </c>
+      <c r="H25" t="n">
         <v>42.2798333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>100745.1775</v>
       </c>
       <c r="G26" t="n">
+        <v>42.30199999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>42.2818333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>47040.7375</v>
       </c>
       <c r="G27" t="n">
+        <v>42.30399999999997</v>
+      </c>
+      <c r="H27" t="n">
         <v>42.28216666666673</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>31418.6349</v>
       </c>
       <c r="G28" t="n">
+        <v>42.32399999999997</v>
+      </c>
+      <c r="H28" t="n">
         <v>42.28400000000007</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4583.08564716</v>
       </c>
       <c r="G29" t="n">
+        <v>42.33199999999997</v>
+      </c>
+      <c r="H29" t="n">
         <v>42.2858333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>51242.0768</v>
       </c>
       <c r="G30" t="n">
+        <v>42.3333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>42.28733333333341</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>14000</v>
       </c>
       <c r="G31" t="n">
+        <v>42.33466666666664</v>
+      </c>
+      <c r="H31" t="n">
         <v>42.28750000000007</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>49.3883</v>
       </c>
       <c r="G32" t="n">
+        <v>42.33933333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>42.28850000000008</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1000</v>
       </c>
       <c r="G33" t="n">
+        <v>42.34399999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>42.28916666666674</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>103214.6847</v>
       </c>
       <c r="G34" t="n">
+        <v>42.33733333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>42.28900000000008</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3000</v>
       </c>
       <c r="G35" t="n">
+        <v>42.33266666666664</v>
+      </c>
+      <c r="H35" t="n">
         <v>42.28883333333341</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>966.371</v>
       </c>
       <c r="G36" t="n">
+        <v>42.33266666666664</v>
+      </c>
+      <c r="H36" t="n">
         <v>42.28766666666675</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10322.8826</v>
       </c>
       <c r="G37" t="n">
+        <v>42.3453333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>42.28666666666675</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>9934.880800000001</v>
       </c>
       <c r="G38" t="n">
+        <v>42.3433333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>42.28816666666675</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>86177.6037566</v>
       </c>
       <c r="G39" t="n">
+        <v>42.34666666666664</v>
+      </c>
+      <c r="H39" t="n">
         <v>42.28633333333342</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>22287.119</v>
       </c>
       <c r="G40" t="n">
+        <v>42.34999999999998</v>
+      </c>
+      <c r="H40" t="n">
         <v>42.28716666666674</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>30733.3014</v>
       </c>
       <c r="G41" t="n">
+        <v>42.34666666666665</v>
+      </c>
+      <c r="H41" t="n">
         <v>42.28950000000007</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>21894.7967</v>
       </c>
       <c r="G42" t="n">
+        <v>42.34666666666665</v>
+      </c>
+      <c r="H42" t="n">
         <v>42.29183333333341</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>116.3981</v>
       </c>
       <c r="G43" t="n">
+        <v>42.34133333333332</v>
+      </c>
+      <c r="H43" t="n">
         <v>42.29216666666674</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>22423.779</v>
       </c>
       <c r="G44" t="n">
+        <v>42.33266666666665</v>
+      </c>
+      <c r="H44" t="n">
         <v>42.29166666666674</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>52</v>
       </c>
       <c r="G45" t="n">
+        <v>42.32933333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>42.28883333333341</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>96</v>
       </c>
       <c r="G46" t="n">
+        <v>42.32466666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>42.28283333333341</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>8210.762199999999</v>
       </c>
       <c r="G47" t="n">
+        <v>42.32466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>42.2803333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>100640664.4375</v>
       </c>
       <c r="G48" t="n">
+        <v>42.30799999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>42.27366666666673</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2180</v>
       </c>
       <c r="G49" t="n">
+        <v>42.296</v>
+      </c>
+      <c r="H49" t="n">
         <v>42.2673333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>161358.8421</v>
       </c>
       <c r="G50" t="n">
+        <v>42.276</v>
+      </c>
+      <c r="H50" t="n">
         <v>42.25750000000006</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>6946.5839</v>
       </c>
       <c r="G51" t="n">
+        <v>42.256</v>
+      </c>
+      <c r="H51" t="n">
         <v>42.2493333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>14465.2075</v>
       </c>
       <c r="G52" t="n">
+        <v>42.236</v>
+      </c>
+      <c r="H52" t="n">
         <v>42.24450000000006</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>48092.8585</v>
       </c>
       <c r="G53" t="n">
+        <v>42.21400000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>42.24050000000006</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>5406.1836</v>
       </c>
       <c r="G54" t="n">
+        <v>42.192</v>
+      </c>
+      <c r="H54" t="n">
         <v>42.23650000000006</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>742.4339</v>
       </c>
       <c r="G55" t="n">
+        <v>42.17466666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>42.23500000000006</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>135.1293</v>
       </c>
       <c r="G56" t="n">
+        <v>42.16266666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>42.23516666666673</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>73.4319</v>
       </c>
       <c r="G57" t="n">
+        <v>42.144</v>
+      </c>
+      <c r="H57" t="n">
         <v>42.2328333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>27984.5391</v>
       </c>
       <c r="G58" t="n">
+        <v>42.12599999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>42.23200000000007</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>57067.68340476</v>
       </c>
       <c r="G59" t="n">
+        <v>42.10799999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>42.23033333333341</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>19284.7563</v>
       </c>
       <c r="G60" t="n">
+        <v>42.08599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>42.22900000000007</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>772</v>
       </c>
       <c r="G61" t="n">
+        <v>42.06733333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>42.22816666666674</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>19228</v>
       </c>
       <c r="G62" t="n">
+        <v>42.04066666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>42.2273333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>108.0426</v>
       </c>
       <c r="G63" t="n">
+        <v>42.03066666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>42.22650000000007</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4084.8629</v>
       </c>
       <c r="G64" t="n">
+        <v>42.01933333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>42.22216666666672</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>7471.9788</v>
       </c>
       <c r="G65" t="n">
+        <v>42.014</v>
+      </c>
+      <c r="H65" t="n">
         <v>42.2168333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3243.2649</v>
       </c>
       <c r="G66" t="n">
+        <v>42.00199999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>42.21550000000006</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>25998.4915</v>
       </c>
       <c r="G67" t="n">
+        <v>41.98999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>42.21000000000006</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>36283.6502</v>
       </c>
       <c r="G68" t="n">
+        <v>41.97866666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>42.20316666666672</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>2933.9738</v>
       </c>
       <c r="G69" t="n">
+        <v>41.97199999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>42.19716666666672</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10118.5547</v>
       </c>
       <c r="G70" t="n">
+        <v>41.96066666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>42.19483333333339</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1884.1935</v>
       </c>
       <c r="G71" t="n">
+        <v>41.94399999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>42.18883333333339</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1149.3021</v>
       </c>
       <c r="G72" t="n">
+        <v>41.93666666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>42.18283333333339</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1150.6979</v>
       </c>
       <c r="G73" t="n">
+        <v>41.92733333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>42.17966666666673</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>635.5961</v>
       </c>
       <c r="G74" t="n">
+        <v>41.92133333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>42.17350000000005</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>5000</v>
       </c>
       <c r="G75" t="n">
+        <v>41.91666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>42.16633333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>8330.4149</v>
       </c>
       <c r="G76" t="n">
+        <v>41.91399999999998</v>
+      </c>
+      <c r="H76" t="n">
         <v>42.1601666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2731.2932</v>
       </c>
       <c r="G77" t="n">
+        <v>41.90733333333331</v>
+      </c>
+      <c r="H77" t="n">
         <v>42.15300000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>5320.2227</v>
       </c>
       <c r="G78" t="n">
+        <v>41.90066666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>42.14583333333336</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>43781.3256</v>
       </c>
       <c r="G79" t="n">
+        <v>41.89066666666664</v>
+      </c>
+      <c r="H79" t="n">
         <v>42.13583333333337</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>6042.1486</v>
       </c>
       <c r="G80" t="n">
+        <v>41.88266666666664</v>
+      </c>
+      <c r="H80" t="n">
         <v>42.12633333333337</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>38328.9075</v>
       </c>
       <c r="G81" t="n">
+        <v>41.87599999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>42.1166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>2129.8506</v>
       </c>
       <c r="G82" t="n">
+        <v>41.86933333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>42.11016666666671</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>4027.3844</v>
       </c>
       <c r="G83" t="n">
+        <v>41.86733333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>42.10083333333338</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>15373.4118</v>
       </c>
       <c r="G84" t="n">
+        <v>41.86066666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>42.09283333333337</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1282.5932</v>
       </c>
       <c r="G85" t="n">
+        <v>41.854</v>
+      </c>
+      <c r="H85" t="n">
         <v>42.08483333333337</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>2702.9012</v>
       </c>
       <c r="G86" t="n">
+        <v>41.846</v>
+      </c>
+      <c r="H86" t="n">
         <v>42.07483333333337</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1400</v>
       </c>
       <c r="G87" t="n">
+        <v>41.84333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>42.0676666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1009.0446</v>
       </c>
       <c r="G88" t="n">
+        <v>41.84066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>42.05883333333337</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>391.85</v>
       </c>
       <c r="G89" t="n">
+        <v>41.838</v>
+      </c>
+      <c r="H89" t="n">
         <v>42.05000000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>71.4307</v>
       </c>
       <c r="G90" t="n">
+        <v>41.83933333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>42.04283333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>238.8344877</v>
       </c>
       <c r="G91" t="n">
+        <v>41.83666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>42.03566666666669</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>14888.3402123</v>
       </c>
       <c r="G92" t="n">
+        <v>41.838</v>
+      </c>
+      <c r="H92" t="n">
         <v>42.02766666666669</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>1126</v>
       </c>
       <c r="G93" t="n">
+        <v>41.83933333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>42.01966666666669</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1505.5072</v>
       </c>
       <c r="G94" t="n">
+        <v>41.84400000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>42.01250000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>9074.9586877</v>
       </c>
       <c r="G95" t="n">
+        <v>41.84200000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>42.00366666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>949.2877</v>
       </c>
       <c r="G96" t="n">
+        <v>41.83866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>41.99316666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>3858.0732</v>
       </c>
       <c r="G97" t="n">
+        <v>41.83533333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>41.98266666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>56664.783</v>
       </c>
       <c r="G98" t="n">
+        <v>41.82266666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>41.97066666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>14381.0945</v>
       </c>
       <c r="G99" t="n">
+        <v>41.80999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>41.95866666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>7604.6736</v>
       </c>
       <c r="G100" t="n">
+        <v>41.79733333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>41.94666666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>973.7395</v>
       </c>
       <c r="G101" t="n">
+        <v>41.78599999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>41.93466666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,25 @@
         <v>28831.0105</v>
       </c>
       <c r="G102" t="n">
+        <v>41.76999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>41.92350000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="L102" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4295,29 @@
         <v>56345.4285</v>
       </c>
       <c r="G103" t="n">
+        <v>41.75399999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>41.91200000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="L103" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4341,29 @@
         <v>1648.415</v>
       </c>
       <c r="G104" t="n">
+        <v>41.73399999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>41.90033333333336</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="L104" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4387,29 @@
         <v>2195.3897</v>
       </c>
       <c r="G105" t="n">
+        <v>41.71133333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>41.88833333333336</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="L105" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4433,29 @@
         <v>47194.5372</v>
       </c>
       <c r="G106" t="n">
+        <v>41.67999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>41.87450000000003</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="L106" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4479,29 @@
         <v>84.0739851</v>
       </c>
       <c r="G107" t="n">
+        <v>41.66399999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>41.86250000000003</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4525,29 @@
         <v>2256.2211</v>
       </c>
       <c r="G108" t="n">
+        <v>41.64799999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>41.8546666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="L108" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4571,27 @@
         <v>391.6434149</v>
       </c>
       <c r="G109" t="n">
+        <v>41.63199999999998</v>
+      </c>
+      <c r="H109" t="n">
         <v>41.84650000000003</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4615,27 @@
         <v>1073.5485</v>
       </c>
       <c r="G110" t="n">
+        <v>41.61866666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>41.83933333333337</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4659,29 @@
         <v>23800</v>
       </c>
       <c r="G111" t="n">
+        <v>41.61799999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>41.83366666666671</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="L111" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4705,27 @@
         <v>2500</v>
       </c>
       <c r="G112" t="n">
+        <v>41.60733333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>41.82550000000005</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4749,27 @@
         <v>34224.6216</v>
       </c>
       <c r="G113" t="n">
+        <v>41.60133333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>41.81750000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4793,27 @@
         <v>228.5471</v>
       </c>
       <c r="G114" t="n">
+        <v>41.59999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>41.81066666666672</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4837,27 @@
         <v>494.3</v>
       </c>
       <c r="G115" t="n">
+        <v>41.60466666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>41.80416666666671</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4881,27 @@
         <v>21.5</v>
       </c>
       <c r="G116" t="n">
+        <v>41.60933333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>41.79633333333337</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4925,27 @@
         <v>64.8468</v>
       </c>
       <c r="G117" t="n">
+        <v>41.62733333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>41.79433333333338</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4969,27 @@
         <v>21426.15751789</v>
       </c>
       <c r="G118" t="n">
+        <v>41.64533333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>41.79183333333337</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5013,27 @@
         <v>250</v>
       </c>
       <c r="G119" t="n">
+        <v>41.64999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>41.78583333333337</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5057,27 @@
         <v>2249.1231</v>
       </c>
       <c r="G120" t="n">
+        <v>41.65466666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>41.78050000000004</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5101,27 @@
         <v>2500</v>
       </c>
       <c r="G121" t="n">
+        <v>41.668</v>
+      </c>
+      <c r="H121" t="n">
         <v>41.7746666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5145,27 @@
         <v>33.3658</v>
       </c>
       <c r="G122" t="n">
+        <v>41.67266666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>41.77050000000004</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5189,27 @@
         <v>41410.243</v>
       </c>
       <c r="G123" t="n">
+        <v>41.67733333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>41.76633333333337</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5233,27 @@
         <v>27000</v>
       </c>
       <c r="G124" t="n">
+        <v>41.68200000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>41.76216666666671</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5277,27 @@
         <v>212.663</v>
       </c>
       <c r="G125" t="n">
+        <v>41.69066666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>41.75850000000003</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5321,27 @@
         <v>27541.7978</v>
       </c>
       <c r="G126" t="n">
+        <v>41.69533333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>41.75700000000003</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5365,27 @@
         <v>4753.59764351</v>
       </c>
       <c r="G127" t="n">
+        <v>41.71466666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>41.7566666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5409,27 @@
         <v>808.2424</v>
       </c>
       <c r="G128" t="n">
+        <v>41.73133333333335</v>
+      </c>
+      <c r="H128" t="n">
         <v>41.7556666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5453,27 @@
         <v>388</v>
       </c>
       <c r="G129" t="n">
+        <v>41.74333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>41.75350000000003</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5497,27 @@
         <v>866.5344</v>
       </c>
       <c r="G130" t="n">
+        <v>41.76200000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>41.75450000000003</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5541,27 @@
         <v>49.7886</v>
       </c>
       <c r="G131" t="n">
+        <v>41.78066666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>41.75550000000003</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5585,27 @@
         <v>164106.8994</v>
       </c>
       <c r="G132" t="n">
+        <v>41.76466666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>41.75133333333336</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5629,27 @@
         <v>2646</v>
       </c>
       <c r="G133" t="n">
+        <v>41.76466666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>41.7511666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5673,27 @@
         <v>915.0088</v>
       </c>
       <c r="G134" t="n">
+        <v>41.78066666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>41.7506666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5717,27 @@
         <v>27421.5107</v>
       </c>
       <c r="G135" t="n">
+        <v>41.79133333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>41.74916666666671</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5761,27 @@
         <v>13761.1159</v>
       </c>
       <c r="G136" t="n">
+        <v>41.802</v>
+      </c>
+      <c r="H136" t="n">
         <v>41.74666666666671</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5805,27 @@
         <v>132.6408787</v>
       </c>
       <c r="G137" t="n">
+        <v>41.81399999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>41.74716666666672</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5849,27 @@
         <v>3088.6999</v>
       </c>
       <c r="G138" t="n">
+        <v>41.816</v>
+      </c>
+      <c r="H138" t="n">
         <v>41.74516666666672</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5893,27 @@
         <v>493.3441</v>
       </c>
       <c r="G139" t="n">
+        <v>41.82733333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>41.74633333333338</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5937,27 @@
         <v>23818.1885</v>
       </c>
       <c r="G140" t="n">
+        <v>41.83933333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>41.74766666666672</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5981,27 @@
         <v>65.62425399</v>
       </c>
       <c r="G141" t="n">
+        <v>41.84333333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>41.74883333333337</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6025,27 @@
         <v>71.41370000000001</v>
       </c>
       <c r="G142" t="n">
+        <v>41.84266666666665</v>
+      </c>
+      <c r="H142" t="n">
         <v>41.75000000000004</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6069,27 @@
         <v>65.6242</v>
       </c>
       <c r="G143" t="n">
+        <v>41.83999999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>41.74883333333337</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6113,27 @@
         <v>115.3704</v>
       </c>
       <c r="G144" t="n">
+        <v>41.84666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>41.75000000000003</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6157,27 @@
         <v>71.41370000000001</v>
       </c>
       <c r="G145" t="n">
+        <v>41.84066666666665</v>
+      </c>
+      <c r="H145" t="n">
         <v>41.75116666666669</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6201,27 @@
         <v>5069.9398</v>
       </c>
       <c r="G146" t="n">
+        <v>41.82599999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>41.75050000000002</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6245,27 @@
         <v>1866.75844601</v>
       </c>
       <c r="G147" t="n">
+        <v>41.84133333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>41.75083333333336</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6289,27 @@
         <v>16.9452</v>
       </c>
       <c r="G148" t="n">
+        <v>41.84133333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>41.75133333333336</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6333,27 @@
         <v>18177.9966</v>
       </c>
       <c r="G149" t="n">
+        <v>41.83399999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>41.7496666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6377,27 @@
         <v>9537.597900000001</v>
       </c>
       <c r="G150" t="n">
+        <v>41.83533333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>41.74816666666671</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6421,27 @@
         <v>1005.9015</v>
       </c>
       <c r="G151" t="n">
+        <v>41.84666666666665</v>
+      </c>
+      <c r="H151" t="n">
         <v>41.7491666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6465,27 @@
         <v>4163.7504</v>
       </c>
       <c r="G152" t="n">
+        <v>41.84999999999998</v>
+      </c>
+      <c r="H152" t="n">
         <v>41.7501666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6509,27 @@
         <v>16005.8169</v>
       </c>
       <c r="G153" t="n">
+        <v>41.86333333333331</v>
+      </c>
+      <c r="H153" t="n">
         <v>41.7511666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6553,27 @@
         <v>68.0829</v>
       </c>
       <c r="G154" t="n">
+        <v>41.87199999999997</v>
+      </c>
+      <c r="H154" t="n">
         <v>41.75333333333337</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6597,27 @@
         <v>2806</v>
       </c>
       <c r="G155" t="n">
+        <v>41.8713333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>41.75500000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6641,27 @@
         <v>292037.0619</v>
       </c>
       <c r="G156" t="n">
+        <v>41.85266666666664</v>
+      </c>
+      <c r="H156" t="n">
         <v>41.75233333333337</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6685,27 @@
         <v>7751.3667</v>
       </c>
       <c r="G157" t="n">
+        <v>41.84599999999998</v>
+      </c>
+      <c r="H157" t="n">
         <v>41.75266666666671</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6729,27 @@
         <v>1420</v>
       </c>
       <c r="G158" t="n">
+        <v>41.84933333333331</v>
+      </c>
+      <c r="H158" t="n">
         <v>41.75550000000003</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6773,27 @@
         <v>238.72045834</v>
       </c>
       <c r="G159" t="n">
+        <v>41.84933333333331</v>
+      </c>
+      <c r="H159" t="n">
         <v>41.75983333333337</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6817,27 @@
         <v>200</v>
       </c>
       <c r="G160" t="n">
+        <v>41.84599999999998</v>
+      </c>
+      <c r="H160" t="n">
         <v>41.76333333333336</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6861,27 @@
         <v>1731.1641</v>
       </c>
       <c r="G161" t="n">
+        <v>41.84866666666664</v>
+      </c>
+      <c r="H161" t="n">
         <v>41.7661666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6905,27 @@
         <v>669.7805</v>
       </c>
       <c r="G162" t="n">
+        <v>41.84266666666664</v>
+      </c>
+      <c r="H162" t="n">
         <v>41.76900000000003</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6949,27 @@
         <v>7498.7958</v>
       </c>
       <c r="G163" t="n">
+        <v>41.83733333333331</v>
+      </c>
+      <c r="H163" t="n">
         <v>41.77216666666671</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6993,27 @@
         <v>6076.5421</v>
       </c>
       <c r="G164" t="n">
+        <v>41.83999999999998</v>
+      </c>
+      <c r="H164" t="n">
         <v>41.7761666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7037,27 @@
         <v>8183.2968</v>
       </c>
       <c r="G165" t="n">
+        <v>41.84199999999998</v>
+      </c>
+      <c r="H165" t="n">
         <v>41.78083333333336</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7081,27 @@
         <v>628.3084</v>
       </c>
       <c r="G166" t="n">
+        <v>41.81799999999998</v>
+      </c>
+      <c r="H166" t="n">
         <v>41.7836666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7125,27 @@
         <v>11559.5512</v>
       </c>
       <c r="G167" t="n">
+        <v>41.80666666666665</v>
+      </c>
+      <c r="H167" t="n">
         <v>41.78583333333336</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7169,27 @@
         <v>12344.1583</v>
       </c>
       <c r="G168" t="n">
+        <v>41.78466666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>41.78533333333336</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7213,27 @@
         <v>76.64670658</v>
       </c>
       <c r="G169" t="n">
+        <v>41.76799999999999</v>
+      </c>
+      <c r="H169" t="n">
         <v>41.78733333333336</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7257,27 @@
         <v>3179.8687</v>
       </c>
       <c r="G170" t="n">
+        <v>41.748</v>
+      </c>
+      <c r="H170" t="n">
         <v>41.78733333333336</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,22 +7301,27 @@
         <v>11.9761</v>
       </c>
       <c r="G171" t="n">
+        <v>41.75733333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>41.78716666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="K171" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6402,24 +7345,27 @@
         <v>369.1853</v>
       </c>
       <c r="G172" t="n">
+        <v>41.74466666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>41.78700000000002</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6443,24 +7389,27 @@
         <v>33812.5162</v>
       </c>
       <c r="G173" t="n">
+        <v>41.732</v>
+      </c>
+      <c r="H173" t="n">
         <v>41.78816666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,22 +7433,27 @@
         <v>6273.2819</v>
       </c>
       <c r="G174" t="n">
+        <v>41.72133333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>41.79016666666669</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="K174" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,24 +7477,27 @@
         <v>23250</v>
       </c>
       <c r="G175" t="n">
+        <v>41.71400000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>41.79066666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,24 +7521,27 @@
         <v>13950</v>
       </c>
       <c r="G176" t="n">
+        <v>41.71266666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>41.79200000000003</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,18 +7565,27 @@
         <v>4051.4218</v>
       </c>
       <c r="G177" t="n">
+        <v>41.71266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>41.79033333333336</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,18 +7609,27 @@
         <v>24.0555</v>
       </c>
       <c r="G178" t="n">
+        <v>41.71400000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>41.78933333333337</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6675,18 +7653,27 @@
         <v>1508.9349</v>
       </c>
       <c r="G179" t="n">
+        <v>41.71933333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>41.79350000000003</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,18 +7697,27 @@
         <v>976</v>
       </c>
       <c r="G180" t="n">
+        <v>41.72466666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>41.79833333333337</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6745,18 +7741,27 @@
         <v>20133.4346</v>
       </c>
       <c r="G181" t="n">
+        <v>41.74599999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>41.8031666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,18 +7785,27 @@
         <v>19960.98414129</v>
       </c>
       <c r="G182" t="n">
+        <v>41.76133333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>41.80800000000003</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,18 +7829,27 @@
         <v>15000</v>
       </c>
       <c r="G183" t="n">
+        <v>41.78733333333332</v>
+      </c>
+      <c r="H183" t="n">
         <v>41.81283333333337</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6850,18 +7873,27 @@
         <v>130.1972</v>
       </c>
       <c r="G184" t="n">
+        <v>41.80333333333332</v>
+      </c>
+      <c r="H184" t="n">
         <v>41.8176666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,18 +7917,27 @@
         <v>29257.6936</v>
       </c>
       <c r="G185" t="n">
+        <v>41.83199999999999</v>
+      </c>
+      <c r="H185" t="n">
         <v>41.8226666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6920,18 +7961,27 @@
         <v>55.0739</v>
       </c>
       <c r="G186" t="n">
+        <v>41.84866666666665</v>
+      </c>
+      <c r="H186" t="n">
         <v>41.82550000000003</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,18 +8005,27 @@
         <v>300</v>
       </c>
       <c r="G187" t="n">
+        <v>41.86999999999998</v>
+      </c>
+      <c r="H187" t="n">
         <v>41.82583333333336</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6990,18 +8049,27 @@
         <v>46448.0472</v>
       </c>
       <c r="G188" t="n">
+        <v>41.89599999999998</v>
+      </c>
+      <c r="H188" t="n">
         <v>41.82933333333337</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,18 +8093,27 @@
         <v>34827.7684</v>
       </c>
       <c r="G189" t="n">
+        <v>41.91199999999998</v>
+      </c>
+      <c r="H189" t="n">
         <v>41.83233333333337</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7060,18 +8137,27 @@
         <v>19274.052</v>
       </c>
       <c r="G190" t="n">
+        <v>41.92999999999998</v>
+      </c>
+      <c r="H190" t="n">
         <v>41.8326666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7095,18 +8181,27 @@
         <v>14262.7005</v>
       </c>
       <c r="G191" t="n">
+        <v>41.94266666666665</v>
+      </c>
+      <c r="H191" t="n">
         <v>41.83250000000002</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7130,18 +8225,27 @@
         <v>1735.0135</v>
       </c>
       <c r="G192" t="n">
+        <v>41.95266666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>41.83733333333336</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7165,18 +8269,27 @@
         <v>1112.2855</v>
       </c>
       <c r="G193" t="n">
+        <v>41.95999999999999</v>
+      </c>
+      <c r="H193" t="n">
         <v>41.83816666666669</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7200,18 +8313,467 @@
         <v>3027.079</v>
       </c>
       <c r="G194" t="n">
+        <v>41.96066666666665</v>
+      </c>
+      <c r="H194" t="n">
         <v>41.83850000000002</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="C195" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="D195" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="E195" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2167.6435</v>
+      </c>
+      <c r="G195" t="n">
+        <v>41.95666666666666</v>
+      </c>
+      <c r="H195" t="n">
+        <v>41.83966666666668</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="D196" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="F196" t="n">
+        <v>47017.4874</v>
+      </c>
+      <c r="G196" t="n">
+        <v>41.94466666666666</v>
+      </c>
+      <c r="H196" t="n">
+        <v>41.83883333333335</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="G197" t="n">
+        <v>41.93866666666666</v>
+      </c>
+      <c r="H197" t="n">
+        <v>41.83916666666668</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>26.1222</v>
+      </c>
+      <c r="G198" t="n">
+        <v>41.93266666666666</v>
+      </c>
+      <c r="H198" t="n">
+        <v>41.84200000000001</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>238.3458</v>
+      </c>
+      <c r="G199" t="n">
+        <v>41.92666666666666</v>
+      </c>
+      <c r="H199" t="n">
+        <v>41.84250000000002</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="D200" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="E200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2489.92531186</v>
+      </c>
+      <c r="G200" t="n">
+        <v>41.93133333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>41.84566666666669</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>42</v>
+      </c>
+      <c r="C201" t="n">
+        <v>42</v>
+      </c>
+      <c r="D201" t="n">
+        <v>42</v>
+      </c>
+      <c r="E201" t="n">
+        <v>42</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2563.7953</v>
+      </c>
+      <c r="G201" t="n">
+        <v>41.93133333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>41.84750000000002</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>42</v>
+      </c>
+      <c r="C202" t="n">
+        <v>42</v>
+      </c>
+      <c r="D202" t="n">
+        <v>42</v>
+      </c>
+      <c r="E202" t="n">
+        <v>42</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13775.8424</v>
+      </c>
+      <c r="G202" t="n">
+        <v>41.93666666666666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>41.84933333333336</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>42</v>
+      </c>
+      <c r="C203" t="n">
+        <v>42</v>
+      </c>
+      <c r="D203" t="n">
+        <v>42</v>
+      </c>
+      <c r="E203" t="n">
+        <v>42</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1912.4857</v>
+      </c>
+      <c r="G203" t="n">
+        <v>41.93666666666666</v>
+      </c>
+      <c r="H203" t="n">
+        <v>41.85350000000003</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>42</v>
+      </c>
+      <c r="C204" t="n">
+        <v>42</v>
+      </c>
+      <c r="D204" t="n">
+        <v>42</v>
+      </c>
+      <c r="E204" t="n">
+        <v>42</v>
+      </c>
+      <c r="F204" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>41.93866666666666</v>
+      </c>
+      <c r="H204" t="n">
+        <v>41.85533333333336</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-36842.53876251999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-183217.07300294</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-231490.54363277</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-197265.92206229</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-197833.14146229</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-196981.42746229</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,22 +5665,15 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K160" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6184,26 +5698,15 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K161" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6228,26 +5731,15 @@
         <v>-101372015.2513547</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K162" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6272,26 +5764,15 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="K163" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6316,26 +5797,15 @@
         <v>-101421405.1782547</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>41.53</v>
-      </c>
-      <c r="K164" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6360,26 +5830,15 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K165" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6404,26 +5863,15 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K166" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6448,26 +5896,15 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K167" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6492,26 +5929,19 @@
         <v>-101422394.6527696</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>41.63</v>
       </c>
       <c r="J168" t="n">
         <v>41.63</v>
       </c>
-      <c r="K168" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6536,26 +5966,23 @@
         <v>-101398594.6527696</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>41.57</v>
       </c>
       <c r="J169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="K169" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>41.63</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6580,26 +6007,23 @@
         <v>-101401094.6527696</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>41.76</v>
       </c>
       <c r="J170" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="K170" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>41.63</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6624,24 +6048,23 @@
         <v>-101435319.2743696</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>41.61</v>
+      </c>
+      <c r="J171" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6666,26 +6089,23 @@
         <v>-101435090.7272696</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>41.54</v>
       </c>
       <c r="J172" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="K172" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>41.63</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6710,26 +6130,21 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="K173" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>41.63</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6754,26 +6169,23 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="J174" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K174" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>41.63</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6798,24 +6210,23 @@
         <v>-101434531.5804696</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>41.7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6842,22 +6253,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6884,22 +6292,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6926,22 +6331,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6968,22 +6370,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7010,22 +6409,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7052,22 +6448,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7094,22 +6487,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7134,24 +6524,23 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>41.7</v>
+      </c>
+      <c r="J183" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7176,24 +6565,23 @@
         <v>-101409455.5399696</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>41.7</v>
+      </c>
+      <c r="J184" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7218,24 +6606,23 @@
         <v>-101404701.9423261</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>41.83</v>
+      </c>
+      <c r="J185" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7260,24 +6647,23 @@
         <v>-101405510.1847261</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>41.9</v>
+      </c>
+      <c r="J186" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7302,24 +6688,23 @@
         <v>-101405510.1847261</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>41.79</v>
+      </c>
+      <c r="J187" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7344,24 +6729,23 @@
         <v>-101404643.6503261</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>41.79</v>
+      </c>
+      <c r="J188" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7388,22 +6772,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7428,24 +6809,23 @@
         <v>-101568750.5497261</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>41.98</v>
+      </c>
+      <c r="J190" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7470,24 +6850,23 @@
         <v>-101566104.5497261</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>41.66</v>
+      </c>
+      <c r="J191" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7512,24 +6891,23 @@
         <v>-101567019.5585261</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>41.9</v>
+      </c>
+      <c r="J192" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7556,22 +6934,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7596,24 +6971,23 @@
         <v>-101594441.0692261</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>41.76</v>
+      </c>
+      <c r="J194" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7640,22 +7014,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7680,24 +7051,23 @@
         <v>-101597397.1282474</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>41.88</v>
+      </c>
+      <c r="J196" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7724,22 +7094,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7766,22 +7133,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7808,22 +7172,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7850,22 +7211,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7892,22 +7250,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7934,22 +7289,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7976,22 +7328,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8018,22 +7367,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8060,22 +7406,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8102,22 +7445,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8144,22 +7484,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8184,24 +7521,23 @@
         <v>-101584796.8600474</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>41.77</v>
+      </c>
+      <c r="J208" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8228,22 +7564,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8268,24 +7601,23 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>41.93</v>
+      </c>
+      <c r="J210" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8312,22 +7644,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8352,24 +7681,23 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>41.93</v>
+      </c>
+      <c r="J212" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8396,22 +7724,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8436,24 +7761,23 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>41.87</v>
+      </c>
+      <c r="J214" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8478,24 +7802,23 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L215" t="inlineStr">
+        <v>41.61</v>
+      </c>
+      <c r="J215" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8522,22 +7845,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8564,22 +7884,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8604,24 +7921,23 @@
         <v>-101869355.8503891</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L218" t="inlineStr">
+        <v>41.89</v>
+      </c>
+      <c r="J218" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8646,24 +7962,23 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L219" t="inlineStr">
+        <v>41.84</v>
+      </c>
+      <c r="J219" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8688,24 +8003,23 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L220" t="inlineStr">
+        <v>41.8</v>
+      </c>
+      <c r="J220" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8732,22 +8046,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8772,24 +8083,23 @@
         <v>-101869664.7607891</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L222" t="inlineStr">
+        <v>41.82</v>
+      </c>
+      <c r="J222" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8814,24 +8124,23 @@
         <v>-101869664.7607891</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L223" t="inlineStr">
+        <v>41.81</v>
+      </c>
+      <c r="J223" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8856,24 +8165,23 @@
         <v>-101870293.0691891</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>41.81</v>
+      </c>
+      <c r="J224" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8898,24 +8206,23 @@
         <v>-101858733.5179891</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L225" t="inlineStr">
+        <v>41.57</v>
+      </c>
+      <c r="J225" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8940,24 +8247,23 @@
         <v>-101871077.6762891</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>41.76</v>
+      </c>
+      <c r="J226" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8982,24 +8288,23 @@
         <v>-101871001.0295825</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L227" t="inlineStr">
+        <v>41.6</v>
+      </c>
+      <c r="J227" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9024,24 +8329,23 @@
         <v>-101874180.8982825</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L228" t="inlineStr">
+        <v>41.75</v>
+      </c>
+      <c r="J228" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9068,22 +8372,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9110,22 +8411,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9152,22 +8450,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9192,24 +8487,23 @@
         <v>-101834452.3093825</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L232" t="inlineStr">
+        <v>41.61</v>
+      </c>
+      <c r="J232" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9234,24 +8528,23 @@
         <v>-101834452.3093825</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L233" t="inlineStr">
+        <v>41.73</v>
+      </c>
+      <c r="J233" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9276,24 +8569,23 @@
         <v>-101820502.3093825</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L234" t="inlineStr">
+        <v>41.73</v>
+      </c>
+      <c r="J234" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9318,24 +8610,23 @@
         <v>-101816450.8875825</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L235" t="inlineStr">
+        <v>41.78</v>
+      </c>
+      <c r="J235" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9360,24 +8651,23 @@
         <v>-101816426.8320825</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>41.8</v>
+      </c>
+      <c r="J236" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9402,24 +8692,23 @@
         <v>-101814917.8971825</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>41.84</v>
+      </c>
+      <c r="J237" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9446,22 +8735,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9486,24 +8772,23 @@
         <v>-101814917.8971825</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L239" t="inlineStr">
+        <v>41.89</v>
+      </c>
+      <c r="J239" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9530,22 +8815,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9572,22 +8854,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9614,22 +8893,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9656,22 +8932,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9696,24 +8969,23 @@
         <v>-101765699.2194412</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L244" t="inlineStr">
+        <v>42</v>
+      </c>
+      <c r="J244" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9740,22 +9012,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9780,24 +9049,23 @@
         <v>-101719551.1722412</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>41.92</v>
+      </c>
+      <c r="J246" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9822,24 +9090,23 @@
         <v>-101754378.9406412</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>42</v>
+      </c>
+      <c r="J247" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9864,24 +9131,23 @@
         <v>-101735104.8886412</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>41.97</v>
+      </c>
+      <c r="J248" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9906,24 +9172,23 @@
         <v>-101749367.5891412</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>42</v>
+      </c>
+      <c r="J249" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9948,24 +9213,23 @@
         <v>-101751102.6026412</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>41.97</v>
+      </c>
+      <c r="J250" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9992,22 +9256,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10034,22 +9295,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10076,22 +9334,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10116,24 +9371,23 @@
         <v>-101803314.8125412</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L254" t="inlineStr">
+        <v>41.83</v>
+      </c>
+      <c r="J254" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10158,24 +9412,23 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L255" t="inlineStr">
+        <v>41.71</v>
+      </c>
+      <c r="J255" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10200,24 +9453,23 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L256" t="inlineStr">
+        <v>41.9</v>
+      </c>
+      <c r="J256" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10242,24 +9494,23 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L257" t="inlineStr">
+        <v>41.9</v>
+      </c>
+      <c r="J257" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10284,24 +9535,23 @@
         <v>-101800443.5872293</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L258" t="inlineStr">
+        <v>41.9</v>
+      </c>
+      <c r="J258" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10328,22 +9578,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10370,22 +9617,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10412,22 +9656,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10454,24 +9695,21 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-186829.56770741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-175986.23226132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-184336.42386132</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-172715.22386132</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-172715.22386132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-97334.75256251999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-47429.80806251999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-36842.53876251999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-174457.15396252</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-183217.07300294</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-182033.14610294</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-232033.14610294</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-231490.54363277</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-197265.92206229</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-197833.14146229</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-196981.42746229</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-169203.31786229</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-220445.39466229</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-220445.39466229</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-220396.00636229</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-220396.00636229</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-323610.69106229</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-323610.69106229</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-322644.32006229</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-322644.32006229</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-354357.59946229</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-101208904.0391623</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-101180919.5000623</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-101237987.183467</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-101257271.939767</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-101300255.568767</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-101297321.594967</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-101297321.594967</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5665,10 +5665,14 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J160" t="n">
+        <v>41.63</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5698,11 +5702,19 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J161" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5743,19 @@
         <v>-101372015.2513547</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J162" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5784,19 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="J163" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5825,19 @@
         <v>-101421405.1782547</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="J164" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5866,19 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5907,19 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J166" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5948,19 @@
         <v>-101421321.1042696</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="J167" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,7 +5989,7 @@
         <v>-101422394.6527696</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>41.63</v>
@@ -5937,7 +5997,11 @@
       <c r="J168" t="n">
         <v>41.63</v>
       </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6030,7 @@
         <v>-101398594.6527696</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>41.57</v>
@@ -5976,7 +6040,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6007,7 +6071,7 @@
         <v>-101401094.6527696</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>41.76</v>
@@ -6017,7 +6081,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6048,7 +6112,7 @@
         <v>-101435319.2743696</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>41.61</v>
@@ -6058,7 +6122,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6089,7 +6153,7 @@
         <v>-101435090.7272696</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>41.54</v>
@@ -6130,9 +6194,11 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>41.61</v>
+      </c>
       <c r="J173" t="n">
         <v>41.63</v>
       </c>
@@ -6169,7 +6235,7 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>41.7</v>
@@ -6210,7 +6276,7 @@
         <v>-101434531.5804696</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>41.7</v>
@@ -6407,9 +6473,11 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J180" t="n">
         <v>41.63</v>
       </c>
@@ -6446,9 +6514,11 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J181" t="n">
         <v>41.63</v>
       </c>
@@ -6485,9 +6555,11 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J182" t="n">
         <v>41.63</v>
       </c>
@@ -6524,7 +6596,7 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>41.7</v>
@@ -6565,7 +6637,7 @@
         <v>-101409455.5399696</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>41.7</v>
@@ -6606,11 +6678,9 @@
         <v>-101404701.9423261</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>41.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>41.63</v>
       </c>
@@ -6647,11 +6717,9 @@
         <v>-101405510.1847261</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>41.63</v>
       </c>
@@ -6688,11 +6756,9 @@
         <v>-101405510.1847261</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>41.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>41.63</v>
       </c>
@@ -6729,11 +6795,9 @@
         <v>-101404643.6503261</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>41.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>41.63</v>
       </c>
@@ -6809,11 +6873,9 @@
         <v>-101568750.5497261</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>41.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>41.63</v>
       </c>
@@ -6850,11 +6912,9 @@
         <v>-101566104.5497261</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>41.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>41.63</v>
       </c>
@@ -6891,11 +6951,9 @@
         <v>-101567019.5585261</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>41.63</v>
       </c>
@@ -6971,11 +7029,9 @@
         <v>-101594441.0692261</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>41.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>41.63</v>
       </c>
@@ -7051,11 +7107,9 @@
         <v>-101597397.1282474</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>41.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>41.63</v>
       </c>
@@ -7521,11 +7575,9 @@
         <v>-101584796.8600474</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>41.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>41.63</v>
       </c>
@@ -7601,11 +7653,9 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>41.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>41.63</v>
       </c>
@@ -7681,11 +7731,9 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>41.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>41.63</v>
       </c>
@@ -7761,11 +7809,9 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>41.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>41.63</v>
       </c>
@@ -7802,11 +7848,9 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>41.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>41.63</v>
       </c>
@@ -7921,11 +7965,9 @@
         <v>-101869355.8503891</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>41.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>41.63</v>
       </c>
@@ -7962,11 +8004,9 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>41.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>41.63</v>
       </c>
@@ -8003,11 +8043,9 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>41.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>41.63</v>
       </c>
@@ -8083,11 +8121,9 @@
         <v>-101869664.7607891</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>41.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>41.63</v>
       </c>
@@ -8124,11 +8160,9 @@
         <v>-101869664.7607891</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>41.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>41.63</v>
       </c>
@@ -8165,11 +8199,9 @@
         <v>-101870293.0691891</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>41.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>41.63</v>
       </c>
@@ -8206,11 +8238,9 @@
         <v>-101858733.5179891</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>41.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>41.63</v>
       </c>
@@ -8247,11 +8277,9 @@
         <v>-101871077.6762891</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>41.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>41.63</v>
       </c>
@@ -8288,11 +8316,9 @@
         <v>-101871001.0295825</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>41.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>41.63</v>
       </c>
@@ -8329,11 +8355,9 @@
         <v>-101874180.8982825</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>41.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>41.63</v>
       </c>
@@ -8487,11 +8511,9 @@
         <v>-101834452.3093825</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>41.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>41.63</v>
       </c>
@@ -8528,11 +8550,9 @@
         <v>-101834452.3093825</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>41.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>41.63</v>
       </c>
@@ -8569,11 +8589,9 @@
         <v>-101820502.3093825</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>41.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>41.63</v>
       </c>
@@ -8610,11 +8628,9 @@
         <v>-101816450.8875825</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>41.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>41.63</v>
       </c>
@@ -8651,11 +8667,9 @@
         <v>-101816426.8320825</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>41.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>41.63</v>
       </c>
@@ -8692,11 +8706,9 @@
         <v>-101814917.8971825</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>41.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>41.63</v>
       </c>
@@ -8772,11 +8784,9 @@
         <v>-101814917.8971825</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>41.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>41.63</v>
       </c>
@@ -8969,11 +8979,9 @@
         <v>-101765699.2194412</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>41.63</v>
       </c>
@@ -9049,11 +9057,9 @@
         <v>-101719551.1722412</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>41.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>41.63</v>
       </c>
@@ -9090,11 +9096,9 @@
         <v>-101754378.9406412</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>41.63</v>
       </c>
@@ -9131,11 +9135,9 @@
         <v>-101735104.8886412</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>41.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>41.63</v>
       </c>
@@ -9172,11 +9174,9 @@
         <v>-101749367.5891412</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>41.63</v>
       </c>
@@ -9213,11 +9213,9 @@
         <v>-101751102.6026412</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>41.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
         <v>41.63</v>
       </c>
@@ -9371,11 +9369,9 @@
         <v>-101803314.8125412</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>41.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>41.63</v>
       </c>
@@ -9412,11 +9408,9 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>41.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
         <v>41.63</v>
       </c>
@@ -9453,11 +9447,9 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>41.63</v>
       </c>
@@ -9494,11 +9486,9 @@
         <v>-101802933.5125412</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>41.63</v>
       </c>
@@ -9535,11 +9525,9 @@
         <v>-101800443.5872293</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>41.63</v>
       </c>
@@ -9710,6 +9698,6 @@
       <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-186829.56770741</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-175986.23226132</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-184336.42386132</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-172715.22386132</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-172715.22386132</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-97334.75256251999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-47429.80806251999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-174457.15396252</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-183217.07300294</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-182033.14610294</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-232033.14610294</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-169203.31786229</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-220445.39466229</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-220445.39466229</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-220396.00636229</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-220396.00636229</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-323610.69106229</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-323610.69106229</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-322644.32006229</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-322644.32006229</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-354357.59946229</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-101208904.0391623</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-101180919.5000623</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-101237987.183467</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-101257271.939767</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-101300255.568767</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-101297321.594967</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-101297321.594967</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5665,14 +5665,10 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="J160" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5707,9 +5703,7 @@
       <c r="I161" t="n">
         <v>41.63</v>
       </c>
-      <c r="J161" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5748,9 +5742,7 @@
       <c r="I162" t="n">
         <v>41.63</v>
       </c>
-      <c r="J162" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,14 +5776,10 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="J163" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5818,7 @@
       <c r="I164" t="n">
         <v>41.53</v>
       </c>
-      <c r="J164" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,9 +5857,7 @@
       <c r="I165" t="n">
         <v>41.4</v>
       </c>
-      <c r="J165" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,9 +5896,7 @@
       <c r="I166" t="n">
         <v>41.63</v>
       </c>
-      <c r="J166" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5953,9 +5935,7 @@
       <c r="I167" t="n">
         <v>41.63</v>
       </c>
-      <c r="J167" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5994,9 +5974,7 @@
       <c r="I168" t="n">
         <v>41.63</v>
       </c>
-      <c r="J168" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,9 +6013,7 @@
       <c r="I169" t="n">
         <v>41.57</v>
       </c>
-      <c r="J169" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,14 +6047,10 @@
         <v>-101401094.6527696</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="J170" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,14 +6084,10 @@
         <v>-101435319.2743696</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="J171" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6158,9 +6126,7 @@
       <c r="I172" t="n">
         <v>41.54</v>
       </c>
-      <c r="J172" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,14 +6160,10 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="J173" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,14 +6197,10 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,14 +6234,10 @@
         <v>-101434531.5804696</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J175" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,9 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,9 +6311,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,9 +6348,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,9 +6385,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,14 +6419,10 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,14 +6456,10 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J181" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,14 +6493,10 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,14 +6530,10 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,14 +6567,10 @@
         <v>-101409455.5399696</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J184" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,9 +6607,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,9 +6644,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6759,9 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,9 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,9 +6755,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6876,9 +6792,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,9 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,9 +6866,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,9 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7032,9 +6940,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7071,9 +6977,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,9 +7014,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7149,9 +7051,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7188,9 +7088,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,9 +7125,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7266,9 +7162,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7305,9 +7199,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7344,9 +7236,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7383,9 +7273,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7422,9 +7310,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7461,9 +7347,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,9 +7384,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,9 +7421,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,9 +7458,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,9 +7495,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,9 +7532,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7692,20 +7566,16 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>41.63</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -7731,17 +7601,11 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7770,17 +7634,11 @@
         <v>-101586528.8756474</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7809,17 +7667,11 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7848,17 +7700,11 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7887,17 +7733,11 @@
         <v>-101869394.5708474</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7926,17 +7766,11 @@
         <v>-101869155.8503891</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7968,14 +7802,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +7835,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8043,17 +7865,11 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8085,14 +7901,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7934,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +8000,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +8033,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +8066,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +8099,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +8132,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +8165,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8436,14 +8198,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +8231,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +8264,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8553,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +8330,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +8363,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +8396,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +8429,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8748,14 +8462,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8495,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +8528,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8865,14 +8561,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8904,14 +8594,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +8627,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +8660,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9021,14 +8693,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9060,14 +8726,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9099,14 +8759,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9138,14 +8792,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9177,14 +8825,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +8858,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +8891,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +8924,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9333,14 +8957,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8990,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9411,14 +9023,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +9056,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9489,14 +9089,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +9155,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +9188,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +9221,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9684,20 +9254,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
       <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -1540,7 +1540,7 @@
         <v>-90566.89936251998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-92366.36166251998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-92319.39826251999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-92767.24026251999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-96749.24026251999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-105067.24026252</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-97334.75256251999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-36842.53876251999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-174457.15396252</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-174814.65696252</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-174814.65696252</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-232033.14610294</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-231490.54363277</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-197265.92206229</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-197833.14146229</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-201192.28176229</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-202510.03386229</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-194388.81526229</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-251450.95936229</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-200621.95276229</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-354473.99756229</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-368718.61626229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5698,17 +5698,11 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5745,7 +5739,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5776,9 +5770,11 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>41.57</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6084,9 +6080,11 @@
         <v>-101435319.2743696</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>41.61</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6160,9 +6158,11 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>41.61</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6197,9 +6197,11 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6419,9 +6421,11 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>41.6</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6530,9 +6534,11 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>41.7</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7566,16 +7572,18 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -7601,11 +7609,15 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7634,11 +7646,15 @@
         <v>-101586528.8756474</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7667,11 +7683,15 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7700,11 +7720,15 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +7757,15 @@
         <v>-101869394.5708474</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7766,11 +7794,15 @@
         <v>-101869155.8503891</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7803,7 +7835,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7836,7 +7872,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +7905,15 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +7946,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7935,7 +7983,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7968,7 +8020,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8001,7 +8057,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8034,7 +8094,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8067,7 +8131,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8100,7 +8168,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8133,7 +8205,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8166,7 +8242,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8199,7 +8279,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8232,7 +8316,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8265,7 +8353,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8390,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8331,7 +8427,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8364,7 +8464,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8397,7 +8501,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +8538,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8463,7 +8575,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8496,7 +8612,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8529,7 +8649,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8562,7 +8686,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8595,7 +8723,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8628,7 +8760,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8661,7 +8797,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8694,7 +8834,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8727,7 +8871,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8760,7 +8908,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8793,7 +8945,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8826,7 +8982,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8859,7 +9019,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8892,7 +9056,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8925,7 +9093,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8958,7 +9130,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8991,7 +9167,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9024,7 +9204,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9241,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +9278,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9123,7 +9315,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9156,7 +9352,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9189,7 +9389,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +9426,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9255,7 +9463,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest ADA.xlsx
+++ b/BackTest/2020-01-14 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>993.0752</v>
       </c>
       <c r="G2" t="n">
-        <v>-135424.91120741</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2274.8123</v>
       </c>
       <c r="G3" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1270.5147</v>
       </c>
       <c r="G4" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>693.9145074100001</v>
       </c>
       <c r="G5" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>24448.6787</v>
       </c>
       <c r="G6" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>83.0335</v>
       </c>
       <c r="G7" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4500</v>
       </c>
       <c r="G8" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>57148.21249259</v>
       </c>
       <c r="G9" t="n">
-        <v>-133150.09890741</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>37228.7</v>
       </c>
       <c r="G10" t="n">
-        <v>-170378.79890741</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12270.2132</v>
       </c>
       <c r="G11" t="n">
-        <v>-182649.01210741</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4180.5556</v>
       </c>
       <c r="G12" t="n">
-        <v>-186829.56770741</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6495.7402</v>
       </c>
       <c r="G13" t="n">
-        <v>-186829.56770741</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>55127.1699</v>
       </c>
       <c r="G14" t="n">
-        <v>-186829.56770741</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3160</v>
       </c>
       <c r="G15" t="n">
-        <v>-186829.56770741</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>8622.799999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-186829.56770741</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>11828.0681012</v>
       </c>
       <c r="G17" t="n">
-        <v>-175001.49960621</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1178.8045</v>
       </c>
       <c r="G18" t="n">
-        <v>-176180.30410621</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2173.913</v>
       </c>
       <c r="G19" t="n">
-        <v>-178354.21710621</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2367.98484489</v>
       </c>
       <c r="G20" t="n">
-        <v>-175986.23226132</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8350.1916</v>
       </c>
       <c r="G21" t="n">
-        <v>-184336.42386132</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11621.2</v>
       </c>
       <c r="G22" t="n">
-        <v>-172715.22386132</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>20796</v>
       </c>
       <c r="G23" t="n">
-        <v>-172715.22386132</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>601.855</v>
       </c>
       <c r="G24" t="n">
-        <v>-172113.36886132</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>340.8277</v>
       </c>
       <c r="G25" t="n">
-        <v>-172113.36886132</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>314.734</v>
       </c>
       <c r="G26" t="n">
-        <v>-171798.63486132</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4870.1636</v>
       </c>
       <c r="G27" t="n">
-        <v>-171798.63486132</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3138.4933</v>
       </c>
       <c r="G28" t="n">
-        <v>-174937.12816132</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3969.2463</v>
       </c>
       <c r="G29" t="n">
-        <v>-170967.88186132</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>34.1635</v>
       </c>
       <c r="G30" t="n">
-        <v>-170967.88186132</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5396.2168988</v>
       </c>
       <c r="G31" t="n">
-        <v>-165571.66496252</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2619.8892</v>
       </c>
       <c r="G32" t="n">
-        <v>-165571.66496252</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>62.2574</v>
       </c>
       <c r="G33" t="n">
-        <v>-165571.66496252</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>75127.4541</v>
       </c>
       <c r="G34" t="n">
-        <v>-90444.21086251998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>122.6885</v>
       </c>
       <c r="G35" t="n">
-        <v>-90566.89936251998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1799.4623</v>
       </c>
       <c r="G36" t="n">
-        <v>-92366.36166251998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>46.9634</v>
       </c>
       <c r="G37" t="n">
-        <v>-92319.39826251999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>447.842</v>
       </c>
       <c r="G38" t="n">
-        <v>-92767.24026251999</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3982</v>
       </c>
       <c r="G39" t="n">
-        <v>-96749.24026251999</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>8318</v>
       </c>
       <c r="G40" t="n">
-        <v>-105067.24026252</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>131.32387706</v>
       </c>
       <c r="G41" t="n">
-        <v>-104935.91638546</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>845.3985</v>
       </c>
       <c r="G42" t="n">
-        <v>-104935.91638546</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>7601.16382294</v>
       </c>
       <c r="G43" t="n">
-        <v>-97334.75256251999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>49904.9445</v>
       </c>
       <c r="G44" t="n">
-        <v>-47429.80806251999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>-48229.80806251999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>23560</v>
       </c>
       <c r="G46" t="n">
-        <v>-48229.80806251999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8653.761500000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-48229.80806251999</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>15730.3747</v>
       </c>
       <c r="G48" t="n">
-        <v>-32499.43336251999</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>14730.0951</v>
       </c>
       <c r="G49" t="n">
-        <v>-32499.43336251999</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>4343.1054</v>
       </c>
       <c r="G50" t="n">
-        <v>-36842.53876251999</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>46712.0796</v>
       </c>
       <c r="G51" t="n">
-        <v>-83554.61836251999</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>136489.0363</v>
       </c>
       <c r="G52" t="n">
-        <v>-83554.61836251999</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>90902.5356</v>
       </c>
       <c r="G53" t="n">
-        <v>-174457.15396252</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>357.503</v>
       </c>
       <c r="G54" t="n">
-        <v>-174814.65696252</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>6514.497</v>
       </c>
       <c r="G55" t="n">
-        <v>-174814.65696252</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>211.4869</v>
       </c>
       <c r="G56" t="n">
-        <v>-175026.14386252</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>12141.4143</v>
       </c>
       <c r="G57" t="n">
-        <v>-175026.14386252</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>12362.50860476</v>
       </c>
       <c r="G58" t="n">
-        <v>-187388.65246728</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2498.1524</v>
       </c>
       <c r="G59" t="n">
-        <v>-187388.65246728</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1074.3023</v>
       </c>
       <c r="G60" t="n">
-        <v>-187388.65246728</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9.524e-05</v>
       </c>
       <c r="G61" t="n">
-        <v>-187388.65246728</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>4171.57946434</v>
       </c>
       <c r="G62" t="n">
-        <v>-183217.07300294</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1183.9269</v>
       </c>
       <c r="G63" t="n">
-        <v>-182033.14610294</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>50000</v>
       </c>
       <c r="G64" t="n">
-        <v>-232033.14610294</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>528.40787017</v>
       </c>
       <c r="G65" t="n">
-        <v>-231504.73823277</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>14.1946</v>
       </c>
       <c r="G66" t="n">
-        <v>-231490.54363277</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>34224.62157048</v>
       </c>
       <c r="G67" t="n">
-        <v>-197265.92206229</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>567.2194</v>
       </c>
       <c r="G68" t="n">
-        <v>-197833.14146229</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>851.7140000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-196981.42746229</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4210.8543</v>
       </c>
       <c r="G70" t="n">
-        <v>-201192.28176229</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1317.7521</v>
       </c>
       <c r="G71" t="n">
-        <v>-202510.03386229</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>121.2186</v>
       </c>
       <c r="G72" t="n">
-        <v>-202388.81526229</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>115.8328</v>
       </c>
       <c r="G73" t="n">
-        <v>-202388.81526229</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>44.2965</v>
       </c>
       <c r="G74" t="n">
-        <v>-202388.81526229</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>971.5825</v>
       </c>
       <c r="G75" t="n">
-        <v>-202388.81526229</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2350</v>
       </c>
       <c r="G76" t="n">
-        <v>-202388.81526229</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>8000</v>
       </c>
       <c r="G77" t="n">
-        <v>-194388.81526229</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>38822.6167</v>
       </c>
       <c r="G78" t="n">
-        <v>-233211.43196229</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>41.1243</v>
       </c>
       <c r="G79" t="n">
-        <v>-233170.30766229</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>18280.6517</v>
       </c>
       <c r="G80" t="n">
-        <v>-251450.95936229</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>835.3366</v>
       </c>
       <c r="G81" t="n">
-        <v>-250615.62276229</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3710.77</v>
       </c>
       <c r="G82" t="n">
-        <v>-254326.39276229</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>560.2556</v>
       </c>
       <c r="G83" t="n">
-        <v>-254326.39276229</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>100745.1775</v>
       </c>
       <c r="G84" t="n">
-        <v>-153581.21526229</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>47040.7375</v>
       </c>
       <c r="G85" t="n">
-        <v>-200621.95276229</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>31418.6349</v>
       </c>
       <c r="G86" t="n">
-        <v>-169203.31786229</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4583.08564716</v>
       </c>
       <c r="G87" t="n">
-        <v>-169203.31786229</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>51242.0768</v>
       </c>
       <c r="G88" t="n">
-        <v>-220445.39466229</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>14000</v>
       </c>
       <c r="G89" t="n">
-        <v>-220445.39466229</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>49.3883</v>
       </c>
       <c r="G90" t="n">
-        <v>-220396.00636229</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>-220396.00636229</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>103214.6847</v>
       </c>
       <c r="G92" t="n">
-        <v>-323610.69106229</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>-323610.69106229</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>966.371</v>
       </c>
       <c r="G94" t="n">
-        <v>-322644.32006229</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10322.8826</v>
       </c>
       <c r="G95" t="n">
-        <v>-322644.32006229</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>9934.880800000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-332579.20086229</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>86177.6037566</v>
       </c>
       <c r="G97" t="n">
-        <v>-332579.20086229</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>22287.119</v>
       </c>
       <c r="G98" t="n">
-        <v>-332579.20086229</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>30733.3014</v>
       </c>
       <c r="G99" t="n">
-        <v>-332579.20086229</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>21894.7967</v>
       </c>
       <c r="G100" t="n">
-        <v>-354473.99756229</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>116.3981</v>
       </c>
       <c r="G101" t="n">
-        <v>-354357.59946229</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>22423.779</v>
       </c>
       <c r="G102" t="n">
-        <v>-376781.37846229</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>52</v>
       </c>
       <c r="G103" t="n">
-        <v>-376833.37846229</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>96</v>
       </c>
       <c r="G104" t="n">
-        <v>-376929.37846229</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8210.762199999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-368718.61626229</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>100640664.4375</v>
       </c>
       <c r="G106" t="n">
-        <v>-101009383.0537623</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2180</v>
       </c>
       <c r="G107" t="n">
-        <v>-101007203.0537623</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>161358.8421</v>
       </c>
       <c r="G108" t="n">
-        <v>-101168561.8958623</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>6946.5839</v>
       </c>
       <c r="G109" t="n">
-        <v>-101161615.3119623</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>14465.2075</v>
       </c>
       <c r="G110" t="n">
-        <v>-101161615.3119623</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>48092.8585</v>
       </c>
       <c r="G111" t="n">
-        <v>-101209708.1704623</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>5406.1836</v>
       </c>
       <c r="G112" t="n">
-        <v>-101209708.1704623</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>742.4339</v>
       </c>
       <c r="G113" t="n">
-        <v>-101208965.7365623</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>135.1293</v>
       </c>
       <c r="G114" t="n">
-        <v>-101208830.6072623</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>73.4319</v>
       </c>
       <c r="G115" t="n">
-        <v>-101208904.0391623</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>27984.5391</v>
       </c>
       <c r="G116" t="n">
-        <v>-101180919.5000623</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>57067.68340476</v>
       </c>
       <c r="G117" t="n">
-        <v>-101237987.183467</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>19284.7563</v>
       </c>
       <c r="G118" t="n">
-        <v>-101257271.939767</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>772</v>
       </c>
       <c r="G119" t="n">
-        <v>-101256499.939767</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>19228</v>
       </c>
       <c r="G120" t="n">
-        <v>-101256499.939767</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>108.0426</v>
       </c>
       <c r="G121" t="n">
-        <v>-101256499.939767</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>4084.8629</v>
       </c>
       <c r="G122" t="n">
-        <v>-101256499.939767</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>7471.9788</v>
       </c>
       <c r="G123" t="n">
-        <v>-101263971.918567</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>3243.2649</v>
       </c>
       <c r="G124" t="n">
-        <v>-101263971.918567</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>25998.4915</v>
       </c>
       <c r="G125" t="n">
-        <v>-101263971.918567</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>36283.6502</v>
       </c>
       <c r="G126" t="n">
-        <v>-101300255.568767</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>2933.9738</v>
       </c>
       <c r="G127" t="n">
-        <v>-101297321.594967</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>10118.5547</v>
       </c>
       <c r="G128" t="n">
-        <v>-101297321.594967</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1884.1935</v>
       </c>
       <c r="G129" t="n">
-        <v>-101297321.594967</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1149.3021</v>
       </c>
       <c r="G130" t="n">
-        <v>-101298470.897067</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>1150.6979</v>
       </c>
       <c r="G131" t="n">
-        <v>-101298470.897067</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>635.5961</v>
       </c>
       <c r="G132" t="n">
-        <v>-101298470.897067</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>5000</v>
       </c>
       <c r="G133" t="n">
-        <v>-101303470.897067</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>8330.4149</v>
       </c>
       <c r="G134" t="n">
-        <v>-101295140.482167</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>2731.2932</v>
       </c>
       <c r="G135" t="n">
-        <v>-101297871.775367</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>5320.2227</v>
       </c>
       <c r="G136" t="n">
-        <v>-101297871.775367</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>43781.3256</v>
       </c>
       <c r="G137" t="n">
-        <v>-101341653.100967</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>6042.1486</v>
       </c>
       <c r="G138" t="n">
-        <v>-101341653.100967</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>38328.9075</v>
       </c>
       <c r="G139" t="n">
-        <v>-101303324.193467</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>2129.8506</v>
       </c>
       <c r="G140" t="n">
-        <v>-101303324.193467</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>4027.3844</v>
       </c>
       <c r="G141" t="n">
-        <v>-101303324.193467</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>15373.4118</v>
       </c>
       <c r="G142" t="n">
-        <v>-101303324.193467</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1282.5932</v>
       </c>
       <c r="G143" t="n">
-        <v>-101303324.193467</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>2702.9012</v>
       </c>
       <c r="G144" t="n">
-        <v>-101306027.094667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1400</v>
       </c>
       <c r="G145" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1009.0446</v>
       </c>
       <c r="G146" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>391.85</v>
       </c>
       <c r="G147" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>71.4307</v>
       </c>
       <c r="G148" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>238.8344877</v>
       </c>
       <c r="G149" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>14888.3402123</v>
       </c>
       <c r="G150" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>1126</v>
       </c>
       <c r="G151" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>1505.5072</v>
       </c>
       <c r="G152" t="n">
-        <v>-101304627.094667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>9074.9586877</v>
       </c>
       <c r="G153" t="n">
-        <v>-101313702.0533547</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>949.2877</v>
       </c>
       <c r="G154" t="n">
-        <v>-101313702.0533547</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>3858.0732</v>
       </c>
       <c r="G155" t="n">
-        <v>-101313702.0533547</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>56664.783</v>
       </c>
       <c r="G156" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>14381.0945</v>
       </c>
       <c r="G157" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>7604.6736</v>
       </c>
       <c r="G158" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>973.7395</v>
       </c>
       <c r="G159" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>28831.0105</v>
       </c>
       <c r="G160" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>56345.4285</v>
       </c>
       <c r="G161" t="n">
-        <v>-101370366.8363547</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,24 +5243,15 @@
         <v>1648.415</v>
       </c>
       <c r="G162" t="n">
-        <v>-101372015.2513547</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>41.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5767,24 +5273,15 @@
         <v>2195.3897</v>
       </c>
       <c r="G163" t="n">
-        <v>-101374210.6410547</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>41.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5806,24 +5303,19 @@
         <v>47194.5372</v>
       </c>
       <c r="G164" t="n">
-        <v>-101421405.1782547</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>41.53</v>
       </c>
       <c r="I164" t="n">
         <v>41.53</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5845,24 +5337,23 @@
         <v>84.0739851</v>
       </c>
       <c r="G165" t="n">
-        <v>-101421321.1042696</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>41.4</v>
       </c>
       <c r="I165" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+        <v>41.53</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5884,24 +5375,23 @@
         <v>2256.2211</v>
       </c>
       <c r="G166" t="n">
-        <v>-101421321.1042696</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>41.63</v>
       </c>
       <c r="I166" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+        <v>41.53</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5923,24 +5413,19 @@
         <v>391.6434149</v>
       </c>
       <c r="G167" t="n">
-        <v>-101421321.1042696</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>41.63</v>
       </c>
       <c r="I167" t="n">
         <v>41.63</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5962,24 +5447,23 @@
         <v>1073.5485</v>
       </c>
       <c r="G168" t="n">
-        <v>-101422394.6527696</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>41.63</v>
       </c>
       <c r="I168" t="n">
         <v>41.63</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6001,24 +5485,23 @@
         <v>23800</v>
       </c>
       <c r="G169" t="n">
-        <v>-101398594.6527696</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>41.57</v>
       </c>
       <c r="I169" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+        <v>41.63</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6040,22 +5523,15 @@
         <v>2500</v>
       </c>
       <c r="G170" t="n">
-        <v>-101401094.6527696</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6077,24 +5553,15 @@
         <v>34224.6216</v>
       </c>
       <c r="G171" t="n">
-        <v>-101435319.2743696</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>41.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6116,24 +5583,19 @@
         <v>228.5471</v>
       </c>
       <c r="G172" t="n">
-        <v>-101435090.7272696</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>41.54</v>
       </c>
       <c r="I172" t="n">
         <v>41.54</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6155,24 +5617,21 @@
         <v>494.3</v>
       </c>
       <c r="G173" t="n">
-        <v>-101434596.4272696</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+        <v>41.54</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6194,24 +5653,21 @@
         <v>21.5</v>
       </c>
       <c r="G174" t="n">
-        <v>-101434596.4272696</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+        <v>41.54</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6233,22 +5689,15 @@
         <v>64.8468</v>
       </c>
       <c r="G175" t="n">
-        <v>-101434531.5804696</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6270,22 +5719,15 @@
         <v>21426.15751789</v>
       </c>
       <c r="G176" t="n">
-        <v>-101434531.5804696</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6307,22 +5749,15 @@
         <v>250</v>
       </c>
       <c r="G177" t="n">
-        <v>-101434781.5804696</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6344,22 +5779,15 @@
         <v>2249.1231</v>
       </c>
       <c r="G178" t="n">
-        <v>-101437030.7035696</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6381,22 +5809,15 @@
         <v>2500</v>
       </c>
       <c r="G179" t="n">
-        <v>-101437030.7035696</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6418,24 +5839,15 @@
         <v>33.3658</v>
       </c>
       <c r="G180" t="n">
-        <v>-101436997.3377696</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>41.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6457,22 +5869,15 @@
         <v>41410.243</v>
       </c>
       <c r="G181" t="n">
-        <v>-101436997.3377696</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6494,22 +5899,15 @@
         <v>27000</v>
       </c>
       <c r="G182" t="n">
-        <v>-101436997.3377696</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6531,24 +5929,15 @@
         <v>212.663</v>
       </c>
       <c r="G183" t="n">
-        <v>-101436997.3377696</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6570,22 +5959,15 @@
         <v>27541.7978</v>
       </c>
       <c r="G184" t="n">
-        <v>-101409455.5399696</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6607,22 +5989,15 @@
         <v>4753.59764351</v>
       </c>
       <c r="G185" t="n">
-        <v>-101404701.9423261</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6644,22 +6019,15 @@
         <v>808.2424</v>
       </c>
       <c r="G186" t="n">
-        <v>-101405510.1847261</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6681,22 +6049,15 @@
         <v>388</v>
       </c>
       <c r="G187" t="n">
-        <v>-101405510.1847261</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6718,22 +6079,15 @@
         <v>866.5344</v>
       </c>
       <c r="G188" t="n">
-        <v>-101404643.6503261</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6755,22 +6109,15 @@
         <v>49.7886</v>
       </c>
       <c r="G189" t="n">
-        <v>-101404643.6503261</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6792,22 +6139,15 @@
         <v>164106.8994</v>
       </c>
       <c r="G190" t="n">
-        <v>-101568750.5497261</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6829,22 +6169,15 @@
         <v>2646</v>
       </c>
       <c r="G191" t="n">
-        <v>-101566104.5497261</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6866,22 +6199,15 @@
         <v>915.0088</v>
       </c>
       <c r="G192" t="n">
-        <v>-101567019.5585261</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6903,22 +6229,15 @@
         <v>27421.5107</v>
       </c>
       <c r="G193" t="n">
-        <v>-101594441.0692261</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6940,22 +6259,15 @@
         <v>13761.1159</v>
       </c>
       <c r="G194" t="n">
-        <v>-101594441.0692261</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6977,22 +6289,15 @@
         <v>132.6408787</v>
       </c>
       <c r="G195" t="n">
-        <v>-101594308.4283474</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7014,22 +6319,15 @@
         <v>3088.6999</v>
       </c>
       <c r="G196" t="n">
-        <v>-101597397.1282474</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7051,22 +6349,15 @@
         <v>493.3441</v>
       </c>
       <c r="G197" t="n">
-        <v>-101596903.7841474</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7088,22 +6379,15 @@
         <v>23818.1885</v>
       </c>
       <c r="G198" t="n">
-        <v>-101573085.5956474</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7125,22 +6409,15 @@
         <v>65.62425399</v>
       </c>
       <c r="G199" t="n">
-        <v>-101573019.9713934</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7162,22 +6439,15 @@
         <v>71.41370000000001</v>
       </c>
       <c r="G200" t="n">
-        <v>-101573019.9713934</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7199,22 +6469,15 @@
         <v>65.6242</v>
       </c>
       <c r="G201" t="n">
-        <v>-101573085.5955934</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7236,22 +6499,15 @@
         <v>115.3704</v>
       </c>
       <c r="G202" t="n">
-        <v>-101572970.2251934</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7273,22 +6529,15 @@
         <v>71.41370000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>-101572970.2251934</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7310,22 +6559,15 @@
         <v>5069.9398</v>
       </c>
       <c r="G204" t="n">
-        <v>-101578040.1649934</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7347,22 +6589,15 @@
         <v>1866.75844601</v>
       </c>
       <c r="G205" t="n">
-        <v>-101576173.4065474</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7384,22 +6619,15 @@
         <v>16.9452</v>
       </c>
       <c r="G206" t="n">
-        <v>-101576156.4613474</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7421,22 +6649,15 @@
         <v>18177.9966</v>
       </c>
       <c r="G207" t="n">
-        <v>-101594334.4579474</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7458,22 +6679,15 @@
         <v>9537.597900000001</v>
       </c>
       <c r="G208" t="n">
-        <v>-101584796.8600474</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7495,22 +6709,15 @@
         <v>1005.9015</v>
       </c>
       <c r="G209" t="n">
-        <v>-101583790.9585474</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7532,22 +6739,15 @@
         <v>4163.7504</v>
       </c>
       <c r="G210" t="n">
-        <v>-101583790.9585474</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7569,22 +6769,15 @@
         <v>16005.8169</v>
       </c>
       <c r="G211" t="n">
-        <v>-101583790.9585474</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7606,22 +6799,15 @@
         <v>68.0829</v>
       </c>
       <c r="G212" t="n">
-        <v>-101583722.8756474</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7643,22 +6829,15 @@
         <v>2806</v>
       </c>
       <c r="G213" t="n">
-        <v>-101586528.8756474</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7680,22 +6859,15 @@
         <v>292037.0619</v>
       </c>
       <c r="G214" t="n">
-        <v>-101878565.9375474</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7717,22 +6889,15 @@
         <v>7751.3667</v>
       </c>
       <c r="G215" t="n">
-        <v>-101870814.5708474</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7754,22 +6919,15 @@
         <v>1420</v>
       </c>
       <c r="G216" t="n">
-        <v>-101869394.5708474</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7791,22 +6949,15 @@
         <v>238.72045834</v>
       </c>
       <c r="G217" t="n">
-        <v>-101869155.8503891</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7828,22 +6979,15 @@
         <v>200</v>
       </c>
       <c r="G218" t="n">
-        <v>-101869355.8503891</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7865,22 +7009,15 @@
         <v>1731.1641</v>
       </c>
       <c r="G219" t="n">
-        <v>-101871087.0144891</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7902,22 +7039,15 @@
         <v>669.7805</v>
       </c>
       <c r="G220" t="n">
-        <v>-101871087.0144891</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7939,22 +7069,15 @@
         <v>7498.7958</v>
       </c>
       <c r="G221" t="n">
-        <v>-101863588.2186891</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7976,22 +7099,15 @@
         <v>6076.5421</v>
       </c>
       <c r="G222" t="n">
-        <v>-101869664.7607891</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8013,22 +7129,15 @@
         <v>8183.2968</v>
       </c>
       <c r="G223" t="n">
-        <v>-101869664.7607891</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8050,22 +7159,15 @@
         <v>628.3084</v>
       </c>
       <c r="G224" t="n">
-        <v>-101870293.0691891</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8087,22 +7189,15 @@
         <v>11559.5512</v>
       </c>
       <c r="G225" t="n">
-        <v>-101858733.5179891</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8124,22 +7219,15 @@
         <v>12344.1583</v>
       </c>
       <c r="G226" t="n">
-        <v>-101871077.6762891</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8161,22 +7249,15 @@
         <v>76.64670658</v>
       </c>
       <c r="G227" t="n">
-        <v>-101871001.0295825</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8198,22 +7279,15 @@
         <v>3179.8687</v>
       </c>
       <c r="G228" t="n">
-        <v>-101874180.8982825</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8235,22 +7309,15 @@
         <v>11.9761</v>
       </c>
       <c r="G229" t="n">
-        <v>-101874168.9221825</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8272,22 +7339,15 @@
         <v>369.1853</v>
       </c>
       <c r="G230" t="n">
-        <v>-101874538.1074825</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8309,22 +7369,15 @@
         <v>33812.5162</v>
       </c>
       <c r="G231" t="n">
-        <v>-101840725.5912825</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8346,22 +7399,15 @@
         <v>6273.2819</v>
       </c>
       <c r="G232" t="n">
-        <v>-101834452.3093825</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8383,22 +7429,15 @@
         <v>23250</v>
       </c>
       <c r="G233" t="n">
-        <v>-101834452.3093825</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8420,22 +7459,15 @@
         <v>13950</v>
       </c>
       <c r="G234" t="n">
-        <v>-101820502.3093825</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8457,22 +7489,15 @@
         <v>4051.4218</v>
       </c>
       <c r="G235" t="n">
-        <v>-101816450.8875825</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8494,22 +7519,15 @@
         <v>24.0555</v>
       </c>
       <c r="G236" t="n">
-        <v>-101816426.8320825</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8531,22 +7549,15 @@
         <v>1508.9349</v>
       </c>
       <c r="G237" t="n">
-        <v>-101814917.8971825</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8568,22 +7579,15 @@
         <v>976</v>
       </c>
       <c r="G238" t="n">
-        <v>-101814917.8971825</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8605,22 +7609,15 @@
         <v>20133.4346</v>
       </c>
       <c r="G239" t="n">
-        <v>-101814917.8971825</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8642,22 +7639,15 @@
         <v>19960.98414129</v>
       </c>
       <c r="G240" t="n">
-        <v>-101794956.9130412</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8679,22 +7669,15 @@
         <v>15000</v>
       </c>
       <c r="G241" t="n">
-        <v>-101794956.9130412</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8716,22 +7699,15 @@
         <v>130.1972</v>
       </c>
       <c r="G242" t="n">
-        <v>-101794956.9130412</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8753,22 +7729,15 @@
         <v>29257.6936</v>
       </c>
       <c r="G243" t="n">
-        <v>-101765699.2194412</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8790,22 +7759,15 @@
         <v>55.0739</v>
       </c>
       <c r="G244" t="n">
-        <v>-101765699.2194412</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8827,22 +7789,15 @@
         <v>300</v>
       </c>
       <c r="G245" t="n">
-        <v>-101765999.2194412</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8864,22 +7819,15 @@
         <v>46448.0472</v>
       </c>
       <c r="G246" t="n">
-        <v>-101719551.1722412</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8901,22 +7849,15 @@
         <v>34827.7684</v>
       </c>
       <c r="G247" t="n">
-        <v>-101754378.9406412</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8938,22 +7879,15 @@
         <v>19274.052</v>
       </c>
       <c r="G248" t="n">
-        <v>-101735104.8886412</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8975,22 +7909,15 @@
         <v>14262.7005</v>
       </c>
       <c r="G249" t="n">
-        <v>-101749367.5891412</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9012,22 +7939,15 @@
         <v>1735.0135</v>
       </c>
       <c r="G250" t="n">
-        <v>-101751102.6026412</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9049,22 +7969,15 @@
         <v>1112.2855</v>
       </c>
       <c r="G251" t="n">
-        <v>-101751102.6026412</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9086,22 +7999,15 @@
         <v>3027.079</v>
       </c>
       <c r="G252" t="n">
-        <v>-101754129.6816412</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9123,22 +8029,15 @@
         <v>2167.6435</v>
       </c>
       <c r="G253" t="n">
-        <v>-101756297.3251412</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9160,22 +8059,15 @@
         <v>47017.4874</v>
       </c>
       <c r="G254" t="n">
-        <v>-101803314.8125412</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9197,22 +8089,15 @@
         <v>381.3</v>
       </c>
       <c r="G255" t="n">
-        <v>-101802933.5125412</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9234,22 +8119,15 @@
         <v>26.1222</v>
       </c>
       <c r="G256" t="n">
-        <v>-101802933.5125412</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9271,22 +8149,15 @@
         <v>238.3458</v>
       </c>
       <c r="G257" t="n">
-        <v>-101802933.5125412</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9308,22 +8179,15 @@
         <v>2489.92531186</v>
       </c>
       <c r="G258" t="n">
-        <v>-101800443.5872293</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9345,22 +8209,15 @@
         <v>2563.7953</v>
       </c>
       <c r="G259" t="n">
-        <v>-101803007.3825293</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9382,22 +8239,15 @@
         <v>13775.8424</v>
       </c>
       <c r="G260" t="n">
-        <v>-101803007.3825293</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9419,22 +8269,15 @@
         <v>1912.4857</v>
       </c>
       <c r="G261" t="n">
-        <v>-101803007.3825293</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9456,22 +8299,15 @@
         <v>5000</v>
       </c>
       <c r="G262" t="n">
-        <v>-101803007.3825293</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
